--- a/chesco/joint.xlsx
+++ b/chesco/joint.xlsx
@@ -8,31 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Music/Dropbox/covid/chesco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422EBD0B-42C8-8C47-AF18-6D0500EA6AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A3FA1-94E4-4A4A-A072-0CD715891C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13720" yWindow="6280" windowWidth="35400" windowHeight="15940" activeTab="2" xr2:uid="{A9DD6730-0F2E-5343-B468-2630B13945F8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" activeTab="1" xr2:uid="{A9DD6730-0F2E-5343-B468-2630B13945F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
     <sheet name="Dailies" sheetId="3" r:id="rId2"/>
     <sheet name="Chart1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Dailies!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Dailies!$B$72:$B$85</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Dailies!$D$72:$D$85</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Totals!$A$72:$A$85</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Totals!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Totals!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Dailies!$C$72:$C$85</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Dailies!$D$72:$D$85</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Totals!$A$72:$A$85</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Totals!$C$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Totals!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Dailies!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Dailies!$B$72:$B$85</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Dailies!$C$72:$C$85</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,10 +205,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Totals!$A$72:$A$85</c:f>
+              <c:f>Totals!$A$72:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43961</c:v>
                 </c:pt>
@@ -266,16 +250,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dailies!$B$72:$B$85</c:f>
+              <c:f>Dailies!$B$72:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -362,10 +349,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Totals!$A$72:$A$85</c:f>
+              <c:f>Totals!$A$72:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43961</c:v>
                 </c:pt>
@@ -407,16 +394,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dailies!$C$72:$C$85</c:f>
+              <c:f>Dailies!$C$72:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -507,10 +497,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Totals!$A$72:$A$85</c:f>
+              <c:f>Totals!$A$72:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43961</c:v>
                 </c:pt>
@@ -552,16 +542,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dailies!$D$72:$D$85</c:f>
+              <c:f>Dailies!$D$72:$D$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -611,6 +604,159 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3527-F341-BF4B-41655ABD1383}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totals!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25-May-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Totals!$A$72:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dailies!$E$72:$E$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D3C-5447-82F7-3FF5441FC0CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1491,7 +1637,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7269E6AC-9DD6-FF49-90C7-6D64F2776714}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1502,7 +1648,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671034" cy="6273362"/>
+    <xdr:ext cx="8678333" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1828,15 +1974,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829C246F-97E5-7041-96F6-5431D0C3A3E3}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1849,8 +1995,11 @@
       <c r="D1" s="1">
         <v>43975</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
@@ -1863,8 +2012,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43892</v>
       </c>
@@ -1877,8 +2029,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43893</v>
       </c>
@@ -1891,8 +2046,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43894</v>
       </c>
@@ -1905,8 +2063,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43895</v>
       </c>
@@ -1919,8 +2080,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43896</v>
       </c>
@@ -1933,8 +2097,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43897</v>
       </c>
@@ -1947,8 +2114,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43898</v>
       </c>
@@ -1961,8 +2131,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43899</v>
       </c>
@@ -1975,8 +2148,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43900</v>
       </c>
@@ -1989,8 +2165,11 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43901</v>
       </c>
@@ -2003,8 +2182,11 @@
       <c r="D12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43902</v>
       </c>
@@ -2017,8 +2199,11 @@
       <c r="D13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -2031,8 +2216,11 @@
       <c r="D14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43904</v>
       </c>
@@ -2045,8 +2233,11 @@
       <c r="D15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43905</v>
       </c>
@@ -2059,8 +2250,11 @@
       <c r="D16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43906</v>
       </c>
@@ -2073,8 +2267,11 @@
       <c r="D17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43907</v>
       </c>
@@ -2087,8 +2284,11 @@
       <c r="D18">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43908</v>
       </c>
@@ -2101,8 +2301,11 @@
       <c r="D19">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43909</v>
       </c>
@@ -2115,8 +2318,11 @@
       <c r="D20">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43910</v>
       </c>
@@ -2129,8 +2335,11 @@
       <c r="D21">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43911</v>
       </c>
@@ -2143,8 +2352,11 @@
       <c r="D22">
         <v>194</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43912</v>
       </c>
@@ -2157,8 +2369,11 @@
       <c r="D23">
         <v>223</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43913</v>
       </c>
@@ -2171,8 +2386,11 @@
       <c r="D24">
         <v>257</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43914</v>
       </c>
@@ -2185,8 +2403,11 @@
       <c r="D25">
         <v>302</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43915</v>
       </c>
@@ -2199,8 +2420,11 @@
       <c r="D26">
         <v>357</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43916</v>
       </c>
@@ -2213,8 +2437,11 @@
       <c r="D27">
         <v>423</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43917</v>
       </c>
@@ -2227,8 +2454,11 @@
       <c r="D28">
         <v>498</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43918</v>
       </c>
@@ -2241,8 +2471,11 @@
       <c r="D29">
         <v>548</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43919</v>
       </c>
@@ -2255,8 +2488,11 @@
       <c r="D30">
         <v>593</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43920</v>
       </c>
@@ -2269,8 +2505,11 @@
       <c r="D31">
         <v>693</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43921</v>
       </c>
@@ -2283,8 +2522,11 @@
       <c r="D32">
         <v>792</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43922</v>
       </c>
@@ -2297,8 +2539,11 @@
       <c r="D33">
         <v>899</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43923</v>
       </c>
@@ -2311,8 +2556,11 @@
       <c r="D34">
         <v>998</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43924</v>
       </c>
@@ -2325,8 +2573,11 @@
       <c r="D35">
         <v>1127</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43925</v>
       </c>
@@ -2339,8 +2590,11 @@
       <c r="D36">
         <v>1193</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43926</v>
       </c>
@@ -2353,8 +2607,11 @@
       <c r="D37">
         <v>1252</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43927</v>
       </c>
@@ -2367,8 +2624,11 @@
       <c r="D38">
         <v>1375</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43928</v>
       </c>
@@ -2381,8 +2641,11 @@
       <c r="D39">
         <v>1511</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43929</v>
       </c>
@@ -2395,8 +2658,11 @@
       <c r="D40">
         <v>1676</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43930</v>
       </c>
@@ -2409,8 +2675,11 @@
       <c r="D41">
         <v>1783</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43931</v>
       </c>
@@ -2423,8 +2692,11 @@
       <c r="D42">
         <v>1911</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43932</v>
       </c>
@@ -2437,8 +2709,11 @@
       <c r="D43">
         <v>1987</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43933</v>
       </c>
@@ -2451,8 +2726,11 @@
       <c r="D44">
         <v>2033</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43934</v>
       </c>
@@ -2465,8 +2743,11 @@
       <c r="D45">
         <v>2156</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43935</v>
       </c>
@@ -2479,8 +2760,11 @@
       <c r="D46">
         <v>2345</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43936</v>
       </c>
@@ -2493,8 +2777,11 @@
       <c r="D47">
         <v>2540</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43937</v>
       </c>
@@ -2507,8 +2794,11 @@
       <c r="D48">
         <v>2740</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43938</v>
       </c>
@@ -2521,8 +2811,11 @@
       <c r="D49">
         <v>2877</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43939</v>
       </c>
@@ -2535,8 +2828,11 @@
       <c r="D50">
         <v>2969</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43940</v>
       </c>
@@ -2549,8 +2845,11 @@
       <c r="D51">
         <v>3024</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43941</v>
       </c>
@@ -2563,8 +2862,11 @@
       <c r="D52">
         <v>3209</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43942</v>
       </c>
@@ -2577,8 +2879,11 @@
       <c r="D53">
         <v>3355</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43943</v>
       </c>
@@ -2591,8 +2896,11 @@
       <c r="D54">
         <v>3527</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43944</v>
       </c>
@@ -2605,8 +2913,11 @@
       <c r="D55">
         <v>3724</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43945</v>
       </c>
@@ -2619,8 +2930,11 @@
       <c r="D56">
         <v>3918</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43946</v>
       </c>
@@ -2633,8 +2947,11 @@
       <c r="D57">
         <v>3981</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43947</v>
       </c>
@@ -2647,8 +2964,11 @@
       <c r="D58">
         <v>4028</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43948</v>
       </c>
@@ -2661,8 +2981,11 @@
       <c r="D59">
         <v>4195</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43949</v>
       </c>
@@ -2675,8 +2998,11 @@
       <c r="D60">
         <v>4361</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43950</v>
       </c>
@@ -2689,8 +3015,11 @@
       <c r="D61">
         <v>4493</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43951</v>
       </c>
@@ -2703,8 +3032,11 @@
       <c r="D62">
         <v>4596</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43952</v>
       </c>
@@ -2717,8 +3049,11 @@
       <c r="D63">
         <v>4741</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43953</v>
       </c>
@@ -2731,8 +3066,11 @@
       <c r="D64">
         <v>4806</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43954</v>
       </c>
@@ -2745,8 +3083,11 @@
       <c r="D65">
         <v>4862</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43955</v>
       </c>
@@ -2759,8 +3100,11 @@
       <c r="D66">
         <v>5001</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43956</v>
       </c>
@@ -2773,8 +3117,11 @@
       <c r="D67">
         <v>5112</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43957</v>
       </c>
@@ -2787,8 +3134,11 @@
       <c r="D68">
         <v>5222</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43958</v>
       </c>
@@ -2801,8 +3151,11 @@
       <c r="D69">
         <v>5314</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43959</v>
       </c>
@@ -2815,8 +3168,11 @@
       <c r="D70">
         <v>5377</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43960</v>
       </c>
@@ -2829,8 +3185,11 @@
       <c r="D71">
         <v>5413</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43961</v>
       </c>
@@ -2843,8 +3202,11 @@
       <c r="D72">
         <v>5438</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43962</v>
       </c>
@@ -2857,8 +3219,11 @@
       <c r="D73">
         <v>5517</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43963</v>
       </c>
@@ -2871,8 +3236,11 @@
       <c r="D74">
         <v>5620</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43964</v>
       </c>
@@ -2885,8 +3253,11 @@
       <c r="D75">
         <v>5704</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43965</v>
       </c>
@@ -2899,8 +3270,11 @@
       <c r="D76">
         <v>5812</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43966</v>
       </c>
@@ -2913,8 +3287,11 @@
       <c r="D77">
         <v>5914</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43967</v>
       </c>
@@ -2927,8 +3304,11 @@
       <c r="D78">
         <v>5938</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43968</v>
       </c>
@@ -2941,8 +3321,11 @@
       <c r="D79">
         <v>5963</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43969</v>
       </c>
@@ -2955,8 +3338,11 @@
       <c r="D80">
         <v>6050</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43970</v>
       </c>
@@ -2969,8 +3355,11 @@
       <c r="D81">
         <v>6133</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43971</v>
       </c>
@@ -2983,8 +3372,11 @@
       <c r="D82">
         <v>6188</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43972</v>
       </c>
@@ -2997,8 +3389,11 @@
       <c r="D83">
         <v>6219</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43973</v>
       </c>
@@ -3008,13 +3403,45 @@
       <c r="D84">
         <v>6231</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43974</v>
       </c>
       <c r="D85">
         <v>6234</v>
+      </c>
+      <c r="E85">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43975</v>
+      </c>
+      <c r="E86">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f>A86+1</f>
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f>A87+1</f>
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f>A88+1</f>
+        <v>43978</v>
       </c>
     </row>
   </sheetData>
@@ -3024,15 +3451,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D54C2C-8FDC-6C42-8746-0BAFEFD59EF0}">
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>Totals!A1</f>
         <v>Date</v>
@@ -3049,8 +3476,12 @@
         <f>Totals!D1</f>
         <v>43975</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1">
+        <f>Totals!E1</f>
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>Totals!A2</f>
         <v>43891</v>
@@ -3064,8 +3495,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>Totals!A3</f>
         <v>43892</v>
@@ -3082,8 +3516,12 @@
         <f>Totals!D3-Totals!D2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f>Totals!E3-Totals!E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>Totals!A4</f>
         <v>43893</v>
@@ -3100,8 +3538,12 @@
         <f>Totals!D4-Totals!D3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f>Totals!E4-Totals!E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>Totals!A5</f>
         <v>43894</v>
@@ -3118,8 +3560,12 @@
         <f>Totals!D5-Totals!D4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f>Totals!E5-Totals!E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>Totals!A6</f>
         <v>43895</v>
@@ -3136,8 +3582,12 @@
         <f>Totals!D6-Totals!D5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f>Totals!E6-Totals!E5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>Totals!A7</f>
         <v>43896</v>
@@ -3154,8 +3604,12 @@
         <f>Totals!D7-Totals!D6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f>Totals!E7-Totals!E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>Totals!A8</f>
         <v>43897</v>
@@ -3172,8 +3626,12 @@
         <f>Totals!D8-Totals!D7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f>Totals!E8-Totals!E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>Totals!A9</f>
         <v>43898</v>
@@ -3190,8 +3648,12 @@
         <f>Totals!D9-Totals!D8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f>Totals!E9-Totals!E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>Totals!A10</f>
         <v>43899</v>
@@ -3208,8 +3670,12 @@
         <f>Totals!D10-Totals!D9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f>Totals!E10-Totals!E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>Totals!A11</f>
         <v>43900</v>
@@ -3226,8 +3692,12 @@
         <f>Totals!D11-Totals!D10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f>Totals!E11-Totals!E10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>Totals!A12</f>
         <v>43901</v>
@@ -3244,8 +3714,12 @@
         <f>Totals!D12-Totals!D11</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f>Totals!E12-Totals!E11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>Totals!A13</f>
         <v>43902</v>
@@ -3262,8 +3736,12 @@
         <f>Totals!D13-Totals!D12</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f>Totals!E13-Totals!E12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>Totals!A14</f>
         <v>43903</v>
@@ -3280,8 +3758,12 @@
         <f>Totals!D14-Totals!D13</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f>Totals!E14-Totals!E13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>Totals!A15</f>
         <v>43904</v>
@@ -3298,8 +3780,12 @@
         <f>Totals!D15-Totals!D14</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f>Totals!E15-Totals!E14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>Totals!A16</f>
         <v>43905</v>
@@ -3316,8 +3802,12 @@
         <f>Totals!D16-Totals!D15</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f>Totals!E16-Totals!E15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>Totals!A17</f>
         <v>43906</v>
@@ -3334,8 +3824,12 @@
         <f>Totals!D17-Totals!D16</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f>Totals!E17-Totals!E16</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>Totals!A18</f>
         <v>43907</v>
@@ -3352,8 +3846,12 @@
         <f>Totals!D18-Totals!D17</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f>Totals!E18-Totals!E17</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>Totals!A19</f>
         <v>43908</v>
@@ -3370,8 +3868,12 @@
         <f>Totals!D19-Totals!D18</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f>Totals!E19-Totals!E18</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>Totals!A20</f>
         <v>43909</v>
@@ -3388,8 +3890,12 @@
         <f>Totals!D20-Totals!D19</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f>Totals!E20-Totals!E19</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>Totals!A21</f>
         <v>43910</v>
@@ -3406,8 +3912,12 @@
         <f>Totals!D21-Totals!D20</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f>Totals!E21-Totals!E20</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>Totals!A22</f>
         <v>43911</v>
@@ -3424,8 +3934,12 @@
         <f>Totals!D22-Totals!D21</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f>Totals!E22-Totals!E21</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>Totals!A23</f>
         <v>43912</v>
@@ -3442,8 +3956,12 @@
         <f>Totals!D23-Totals!D22</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f>Totals!E23-Totals!E22</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>Totals!A24</f>
         <v>43913</v>
@@ -3460,8 +3978,12 @@
         <f>Totals!D24-Totals!D23</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f>Totals!E24-Totals!E23</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f>Totals!A25</f>
         <v>43914</v>
@@ -3478,8 +4000,12 @@
         <f>Totals!D25-Totals!D24</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f>Totals!E25-Totals!E24</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>Totals!A26</f>
         <v>43915</v>
@@ -3496,8 +4022,12 @@
         <f>Totals!D26-Totals!D25</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f>Totals!E26-Totals!E25</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>Totals!A27</f>
         <v>43916</v>
@@ -3514,8 +4044,12 @@
         <f>Totals!D27-Totals!D26</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f>Totals!E27-Totals!E26</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f>Totals!A28</f>
         <v>43917</v>
@@ -3532,8 +4066,12 @@
         <f>Totals!D28-Totals!D27</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f>Totals!E28-Totals!E27</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f>Totals!A29</f>
         <v>43918</v>
@@ -3550,8 +4088,12 @@
         <f>Totals!D29-Totals!D28</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f>Totals!E29-Totals!E28</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f>Totals!A30</f>
         <v>43919</v>
@@ -3568,8 +4110,12 @@
         <f>Totals!D30-Totals!D29</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f>Totals!E30-Totals!E29</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f>Totals!A31</f>
         <v>43920</v>
@@ -3586,8 +4132,12 @@
         <f>Totals!D31-Totals!D30</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f>Totals!E31-Totals!E30</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f>Totals!A32</f>
         <v>43921</v>
@@ -3604,8 +4154,12 @@
         <f>Totals!D32-Totals!D31</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <f>Totals!E32-Totals!E31</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>Totals!A33</f>
         <v>43922</v>
@@ -3622,8 +4176,12 @@
         <f>Totals!D33-Totals!D32</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f>Totals!E33-Totals!E32</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>Totals!A34</f>
         <v>43923</v>
@@ -3640,8 +4198,12 @@
         <f>Totals!D34-Totals!D33</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <f>Totals!E34-Totals!E33</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>Totals!A35</f>
         <v>43924</v>
@@ -3658,8 +4220,12 @@
         <f>Totals!D35-Totals!D34</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <f>Totals!E35-Totals!E34</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>Totals!A36</f>
         <v>43925</v>
@@ -3676,8 +4242,12 @@
         <f>Totals!D36-Totals!D35</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <f>Totals!E36-Totals!E35</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f>Totals!A37</f>
         <v>43926</v>
@@ -3694,8 +4264,12 @@
         <f>Totals!D37-Totals!D36</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <f>Totals!E37-Totals!E36</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f>Totals!A38</f>
         <v>43927</v>
@@ -3712,8 +4286,12 @@
         <f>Totals!D38-Totals!D37</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <f>Totals!E38-Totals!E37</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>Totals!A39</f>
         <v>43928</v>
@@ -3730,8 +4308,12 @@
         <f>Totals!D39-Totals!D38</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <f>Totals!E39-Totals!E38</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>Totals!A40</f>
         <v>43929</v>
@@ -3748,8 +4330,12 @@
         <f>Totals!D40-Totals!D39</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <f>Totals!E40-Totals!E39</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f>Totals!A41</f>
         <v>43930</v>
@@ -3766,8 +4352,12 @@
         <f>Totals!D41-Totals!D40</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <f>Totals!E41-Totals!E40</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f>Totals!A42</f>
         <v>43931</v>
@@ -3784,8 +4374,12 @@
         <f>Totals!D42-Totals!D41</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <f>Totals!E42-Totals!E41</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>Totals!A43</f>
         <v>43932</v>
@@ -3802,8 +4396,12 @@
         <f>Totals!D43-Totals!D42</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <f>Totals!E43-Totals!E42</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>Totals!A44</f>
         <v>43933</v>
@@ -3820,8 +4418,12 @@
         <f>Totals!D44-Totals!D43</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <f>Totals!E44-Totals!E43</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f>Totals!A45</f>
         <v>43934</v>
@@ -3838,8 +4440,12 @@
         <f>Totals!D45-Totals!D44</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <f>Totals!E45-Totals!E44</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f>Totals!A46</f>
         <v>43935</v>
@@ -3856,8 +4462,12 @@
         <f>Totals!D46-Totals!D45</f>
         <v>189</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <f>Totals!E46-Totals!E45</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f>Totals!A47</f>
         <v>43936</v>
@@ -3874,8 +4484,12 @@
         <f>Totals!D47-Totals!D46</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <f>Totals!E47-Totals!E46</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f>Totals!A48</f>
         <v>43937</v>
@@ -3892,8 +4506,12 @@
         <f>Totals!D48-Totals!D47</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <f>Totals!E48-Totals!E47</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f>Totals!A49</f>
         <v>43938</v>
@@ -3910,8 +4528,12 @@
         <f>Totals!D49-Totals!D48</f>
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <f>Totals!E49-Totals!E48</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>Totals!A50</f>
         <v>43939</v>
@@ -3928,8 +4550,12 @@
         <f>Totals!D50-Totals!D49</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <f>Totals!E50-Totals!E49</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>Totals!A51</f>
         <v>43940</v>
@@ -3946,8 +4572,12 @@
         <f>Totals!D51-Totals!D50</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <f>Totals!E51-Totals!E50</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>Totals!A52</f>
         <v>43941</v>
@@ -3964,8 +4594,12 @@
         <f>Totals!D52-Totals!D51</f>
         <v>185</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <f>Totals!E52-Totals!E51</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>Totals!A53</f>
         <v>43942</v>
@@ -3982,8 +4616,12 @@
         <f>Totals!D53-Totals!D52</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <f>Totals!E53-Totals!E52</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f>Totals!A54</f>
         <v>43943</v>
@@ -4000,8 +4638,12 @@
         <f>Totals!D54-Totals!D53</f>
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <f>Totals!E54-Totals!E53</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f>Totals!A55</f>
         <v>43944</v>
@@ -4018,8 +4660,12 @@
         <f>Totals!D55-Totals!D54</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <f>Totals!E55-Totals!E54</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f>Totals!A56</f>
         <v>43945</v>
@@ -4036,8 +4682,12 @@
         <f>Totals!D56-Totals!D55</f>
         <v>194</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <f>Totals!E56-Totals!E55</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f>Totals!A57</f>
         <v>43946</v>
@@ -4054,8 +4704,12 @@
         <f>Totals!D57-Totals!D56</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <f>Totals!E57-Totals!E56</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f>Totals!A58</f>
         <v>43947</v>
@@ -4072,8 +4726,12 @@
         <f>Totals!D58-Totals!D57</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <f>Totals!E58-Totals!E57</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f>Totals!A59</f>
         <v>43948</v>
@@ -4090,8 +4748,12 @@
         <f>Totals!D59-Totals!D58</f>
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <f>Totals!E59-Totals!E58</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f>Totals!A60</f>
         <v>43949</v>
@@ -4108,8 +4770,12 @@
         <f>Totals!D60-Totals!D59</f>
         <v>166</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <f>Totals!E60-Totals!E59</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f>Totals!A61</f>
         <v>43950</v>
@@ -4126,8 +4792,12 @@
         <f>Totals!D61-Totals!D60</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <f>Totals!E61-Totals!E60</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f>Totals!A62</f>
         <v>43951</v>
@@ -4144,8 +4814,12 @@
         <f>Totals!D62-Totals!D61</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <f>Totals!E62-Totals!E61</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f>Totals!A63</f>
         <v>43952</v>
@@ -4162,8 +4836,12 @@
         <f>Totals!D63-Totals!D62</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <f>Totals!E63-Totals!E62</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f>Totals!A64</f>
         <v>43953</v>
@@ -4180,8 +4858,12 @@
         <f>Totals!D64-Totals!D63</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <f>Totals!E64-Totals!E63</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f>Totals!A65</f>
         <v>43954</v>
@@ -4198,8 +4880,12 @@
         <f>Totals!D65-Totals!D64</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <f>Totals!E65-Totals!E64</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f>Totals!A66</f>
         <v>43955</v>
@@ -4216,8 +4902,12 @@
         <f>Totals!D66-Totals!D65</f>
         <v>139</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <f>Totals!E66-Totals!E65</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f>Totals!A67</f>
         <v>43956</v>
@@ -4234,8 +4924,12 @@
         <f>Totals!D67-Totals!D66</f>
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <f>Totals!E67-Totals!E66</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f>Totals!A68</f>
         <v>43957</v>
@@ -4252,8 +4946,12 @@
         <f>Totals!D68-Totals!D67</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <f>Totals!E68-Totals!E67</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f>Totals!A69</f>
         <v>43958</v>
@@ -4270,8 +4968,12 @@
         <f>Totals!D69-Totals!D68</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <f>Totals!E69-Totals!E68</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f>Totals!A70</f>
         <v>43959</v>
@@ -4288,8 +4990,12 @@
         <f>Totals!D70-Totals!D69</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <f>Totals!E70-Totals!E69</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <f>Totals!A71</f>
         <v>43960</v>
@@ -4306,8 +5012,12 @@
         <f>Totals!D71-Totals!D70</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <f>Totals!E71-Totals!E70</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f>Totals!A72</f>
         <v>43961</v>
@@ -4324,8 +5034,12 @@
         <f>Totals!D72-Totals!D71</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <f>Totals!E72-Totals!E71</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f>Totals!A73</f>
         <v>43962</v>
@@ -4342,8 +5056,12 @@
         <f>Totals!D73-Totals!D72</f>
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <f>Totals!E73-Totals!E72</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <f>Totals!A74</f>
         <v>43963</v>
@@ -4360,8 +5078,12 @@
         <f>Totals!D74-Totals!D73</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <f>Totals!E74-Totals!E73</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f>Totals!A75</f>
         <v>43964</v>
@@ -4378,8 +5100,12 @@
         <f>Totals!D75-Totals!D74</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <f>Totals!E75-Totals!E74</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f>Totals!A76</f>
         <v>43965</v>
@@ -4396,8 +5122,12 @@
         <f>Totals!D76-Totals!D75</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <f>Totals!E76-Totals!E75</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <f>Totals!A77</f>
         <v>43966</v>
@@ -4414,8 +5144,12 @@
         <f>Totals!D77-Totals!D76</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <f>Totals!E77-Totals!E76</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f>Totals!A78</f>
         <v>43967</v>
@@ -4432,8 +5166,12 @@
         <f>Totals!D78-Totals!D77</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <f>Totals!E78-Totals!E77</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <f>Totals!A79</f>
         <v>43968</v>
@@ -4450,8 +5188,12 @@
         <f>Totals!D79-Totals!D78</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <f>Totals!E79-Totals!E78</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <f>Totals!A80</f>
         <v>43969</v>
@@ -4468,8 +5210,12 @@
         <f>Totals!D80-Totals!D79</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <f>Totals!E80-Totals!E79</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <f>Totals!A81</f>
         <v>43970</v>
@@ -4486,8 +5232,12 @@
         <f>Totals!D81-Totals!D80</f>
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <f>Totals!E81-Totals!E80</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <f>Totals!A82</f>
         <v>43971</v>
@@ -4504,8 +5254,12 @@
         <f>Totals!D82-Totals!D81</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <f>Totals!E82-Totals!E81</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <f>Totals!A83</f>
         <v>43972</v>
@@ -4522,8 +5276,12 @@
         <f>Totals!D83-Totals!D82</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <f>Totals!E83-Totals!E82</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <f>Totals!A84</f>
         <v>43973</v>
@@ -4536,8 +5294,12 @@
         <f>Totals!D84-Totals!D83</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <f>Totals!E84-Totals!E83</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <f>Totals!A85</f>
         <v>43974</v>
@@ -4546,68 +5308,76 @@
         <f>Totals!D85-Totals!D84</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <f>Totals!E85-Totals!E84</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <f>Totals!A86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43975</v>
+      </c>
+      <c r="E86">
+        <f>Totals!E86-Totals!E85</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f>Totals!A87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f>Totals!A88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f>Totals!A89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <f>Totals!A90</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <f>Totals!A91</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <f>Totals!A92</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <f>Totals!A93</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <f>Totals!A94</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <f>Totals!A95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <f>Totals!A96</f>
         <v>0</v>

--- a/chesco/joint.xlsx
+++ b/chesco/joint.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Music/Dropbox/covid/chesco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardw/Dropbox/covid/chesco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A3FA1-94E4-4A4A-A072-0CD715891C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7AD76-7846-9548-8859-9B1523919A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" activeTab="1" xr2:uid="{A9DD6730-0F2E-5343-B468-2630B13945F8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" activeTab="2" xr2:uid="{A9DD6730-0F2E-5343-B468-2630B13945F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
     <sheet name="Dailies" sheetId="3" r:id="rId2"/>
     <sheet name="Chart1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,13 +44,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,9 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,6 +779,159 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9D3C-5447-82F7-3FF5441FC0CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totals!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26-May-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Totals!$A$72:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dailies!$F$72:$F$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA39-FD48-9AA7-578A399CA72A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1009,6 +1184,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87878513073881814"/>
+          <c:y val="7.6878895750391016E-2"/>
+          <c:w val="0.10219047828655574"/>
+          <c:h val="0.17029934969445859"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -1637,7 +1822,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7269E6AC-9DD6-FF49-90C7-6D64F2776714}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1974,15 +2159,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829C246F-97E5-7041-96F6-5431D0C3A3E3}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1998,8 +2183,11 @@
       <c r="E1" s="1">
         <v>43976</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
@@ -2015,8 +2203,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>43892</v>
       </c>
@@ -2032,8 +2223,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>43893</v>
       </c>
@@ -2049,8 +2243,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>43894</v>
       </c>
@@ -2066,8 +2263,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>43895</v>
       </c>
@@ -2083,8 +2283,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>43896</v>
       </c>
@@ -2100,8 +2303,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>43897</v>
       </c>
@@ -2117,8 +2323,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>43898</v>
       </c>
@@ -2134,8 +2343,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>43899</v>
       </c>
@@ -2151,8 +2363,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>43900</v>
       </c>
@@ -2168,8 +2383,11 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>43901</v>
       </c>
@@ -2185,8 +2403,11 @@
       <c r="E12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>43902</v>
       </c>
@@ -2202,8 +2423,11 @@
       <c r="E13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -2219,8 +2443,11 @@
       <c r="E14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>43904</v>
       </c>
@@ -2236,8 +2463,11 @@
       <c r="E15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>43905</v>
       </c>
@@ -2253,8 +2483,11 @@
       <c r="E16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>43906</v>
       </c>
@@ -2270,8 +2503,11 @@
       <c r="E17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>43907</v>
       </c>
@@ -2287,8 +2523,11 @@
       <c r="E18">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>43908</v>
       </c>
@@ -2304,8 +2543,11 @@
       <c r="E19">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>43909</v>
       </c>
@@ -2321,8 +2563,11 @@
       <c r="E20">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>43910</v>
       </c>
@@ -2338,8 +2583,11 @@
       <c r="E21">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>43911</v>
       </c>
@@ -2355,8 +2603,11 @@
       <c r="E22">
         <v>194</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>43912</v>
       </c>
@@ -2372,8 +2623,11 @@
       <c r="E23">
         <v>223</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>43913</v>
       </c>
@@ -2389,8 +2643,11 @@
       <c r="E24">
         <v>257</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>43914</v>
       </c>
@@ -2406,8 +2663,11 @@
       <c r="E25">
         <v>302</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>43915</v>
       </c>
@@ -2423,8 +2683,11 @@
       <c r="E26">
         <v>357</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>43916</v>
       </c>
@@ -2440,8 +2703,11 @@
       <c r="E27">
         <v>423</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>43917</v>
       </c>
@@ -2457,8 +2723,11 @@
       <c r="E28">
         <v>498</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>43918</v>
       </c>
@@ -2474,8 +2743,11 @@
       <c r="E29">
         <v>548</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>43919</v>
       </c>
@@ -2491,8 +2763,11 @@
       <c r="E30">
         <v>593</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>43920</v>
       </c>
@@ -2508,8 +2783,11 @@
       <c r="E31">
         <v>693</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>43921</v>
       </c>
@@ -2525,8 +2803,11 @@
       <c r="E32">
         <v>792</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>43922</v>
       </c>
@@ -2542,8 +2823,11 @@
       <c r="E33">
         <v>899</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>43923</v>
       </c>
@@ -2559,8 +2843,11 @@
       <c r="E34">
         <v>998</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="2">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>43924</v>
       </c>
@@ -2576,8 +2863,11 @@
       <c r="E35">
         <v>1127</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="2">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>43925</v>
       </c>
@@ -2593,8 +2883,11 @@
       <c r="E36">
         <v>1193</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="2">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>43926</v>
       </c>
@@ -2610,8 +2903,11 @@
       <c r="E37">
         <v>1252</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="2">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>43927</v>
       </c>
@@ -2627,8 +2923,11 @@
       <c r="E38">
         <v>1375</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="2">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>43928</v>
       </c>
@@ -2644,8 +2943,11 @@
       <c r="E39">
         <v>1511</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="2">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>43929</v>
       </c>
@@ -2661,8 +2963,11 @@
       <c r="E40">
         <v>1676</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="2">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>43930</v>
       </c>
@@ -2678,8 +2983,11 @@
       <c r="E41">
         <v>1783</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="2">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>43931</v>
       </c>
@@ -2695,8 +3003,11 @@
       <c r="E42">
         <v>1911</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="2">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>43932</v>
       </c>
@@ -2712,8 +3023,11 @@
       <c r="E43">
         <v>1987</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="2">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43933</v>
       </c>
@@ -2729,8 +3043,11 @@
       <c r="E44">
         <v>2033</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="2">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43934</v>
       </c>
@@ -2746,8 +3063,11 @@
       <c r="E45">
         <v>2156</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="2">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>43935</v>
       </c>
@@ -2763,8 +3083,11 @@
       <c r="E46">
         <v>2345</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="2">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>43936</v>
       </c>
@@ -2780,8 +3103,11 @@
       <c r="E47">
         <v>2540</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="2">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>43937</v>
       </c>
@@ -2797,8 +3123,11 @@
       <c r="E48">
         <v>2739</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="2">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>43938</v>
       </c>
@@ -2814,8 +3143,11 @@
       <c r="E49">
         <v>2876</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="2">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>43939</v>
       </c>
@@ -2831,8 +3163,11 @@
       <c r="E50">
         <v>2968</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="2">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>43940</v>
       </c>
@@ -2848,8 +3183,11 @@
       <c r="E51">
         <v>3023</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="2">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>43941</v>
       </c>
@@ -2865,8 +3203,11 @@
       <c r="E52">
         <v>3208</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="2">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>43942</v>
       </c>
@@ -2882,8 +3223,11 @@
       <c r="E53">
         <v>3354</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="2">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>43943</v>
       </c>
@@ -2899,8 +3243,11 @@
       <c r="E54">
         <v>3526</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="2">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>43944</v>
       </c>
@@ -2916,8 +3263,11 @@
       <c r="E55">
         <v>3723</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="2">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>43945</v>
       </c>
@@ -2933,8 +3283,11 @@
       <c r="E56">
         <v>3917</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="2">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>43946</v>
       </c>
@@ -2950,8 +3303,11 @@
       <c r="E57">
         <v>3980</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="2">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>43947</v>
       </c>
@@ -2967,8 +3323,11 @@
       <c r="E58">
         <v>4027</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="3">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>43948</v>
       </c>
@@ -2984,8 +3343,11 @@
       <c r="E59">
         <v>4194</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="3">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>43949</v>
       </c>
@@ -3001,8 +3363,11 @@
       <c r="E60">
         <v>4360</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="3">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>43950</v>
       </c>
@@ -3018,8 +3383,11 @@
       <c r="E61">
         <v>4492</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="3">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>43951</v>
       </c>
@@ -3035,8 +3403,11 @@
       <c r="E62">
         <v>4595</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="3">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>43952</v>
       </c>
@@ -3052,8 +3423,11 @@
       <c r="E63">
         <v>4740</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="3">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>43953</v>
       </c>
@@ -3069,8 +3443,11 @@
       <c r="E64">
         <v>4805</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="3">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>43954</v>
       </c>
@@ -3086,8 +3463,11 @@
       <c r="E65">
         <v>4861</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="3">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>43955</v>
       </c>
@@ -3103,8 +3483,11 @@
       <c r="E66">
         <v>5000</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="3">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>43956</v>
       </c>
@@ -3120,8 +3503,11 @@
       <c r="E67">
         <v>5111</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="3">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>43957</v>
       </c>
@@ -3137,8 +3523,11 @@
       <c r="E68">
         <v>5221</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="3">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>43958</v>
       </c>
@@ -3154,8 +3543,11 @@
       <c r="E69">
         <v>5313</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="3">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>43959</v>
       </c>
@@ -3171,8 +3563,11 @@
       <c r="E70">
         <v>5376</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="3">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>43960</v>
       </c>
@@ -3188,8 +3583,11 @@
       <c r="E71">
         <v>5413</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="3">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>43961</v>
       </c>
@@ -3205,8 +3603,11 @@
       <c r="E72">
         <v>5438</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="3">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>43962</v>
       </c>
@@ -3222,8 +3623,11 @@
       <c r="E73">
         <v>5517</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="3">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>43963</v>
       </c>
@@ -3239,8 +3643,11 @@
       <c r="E74">
         <v>5620</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="3">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>43964</v>
       </c>
@@ -3256,8 +3663,11 @@
       <c r="E75">
         <v>5704</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="3">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>43965</v>
       </c>
@@ -3273,8 +3683,11 @@
       <c r="E76">
         <v>5810</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="3">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>43966</v>
       </c>
@@ -3290,8 +3703,11 @@
       <c r="E77">
         <v>5912</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="3">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>43967</v>
       </c>
@@ -3307,8 +3723,11 @@
       <c r="E78">
         <v>5936</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="3">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>43968</v>
       </c>
@@ -3324,8 +3743,11 @@
       <c r="E79">
         <v>5961</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="3">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>43969</v>
       </c>
@@ -3341,8 +3763,11 @@
       <c r="E80">
         <v>6048</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="3">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>43970</v>
       </c>
@@ -3358,8 +3783,11 @@
       <c r="E81">
         <v>6131</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="3">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>43971</v>
       </c>
@@ -3375,8 +3803,11 @@
       <c r="E82">
         <v>6190</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="3">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>43972</v>
       </c>
@@ -3392,8 +3823,11 @@
       <c r="E83">
         <v>6227</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="3">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>43973</v>
       </c>
@@ -3406,8 +3840,11 @@
       <c r="E84">
         <v>6246</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="3">
+        <v>6269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>43974</v>
       </c>
@@ -3417,31 +3854,76 @@
       <c r="E85">
         <v>6254</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="3">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>43975</v>
       </c>
       <c r="E86">
         <v>6262</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="3">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <f>A86+1</f>
         <v>43976</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="3">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <f>A87+1</f>
         <v>43977</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <f>A88+1</f>
         <v>43978</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <f t="shared" ref="A90:A95" si="0">A89+1</f>
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <f t="shared" si="0"/>
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <f t="shared" si="0"/>
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <f t="shared" si="0"/>
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <f t="shared" si="0"/>
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <f t="shared" si="0"/>
+        <v>43984</v>
       </c>
     </row>
   </sheetData>
@@ -3451,15 +3933,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D54C2C-8FDC-6C42-8746-0BAFEFD59EF0}">
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="str">
         <f>Totals!A1</f>
         <v>Date</v>
@@ -3480,8 +3962,12 @@
         <f>Totals!E1</f>
         <v>43976</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1">
+        <f>Totals!F1</f>
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <f>Totals!A2</f>
         <v>43891</v>
@@ -3498,8 +3984,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <f>Totals!A3</f>
         <v>43892</v>
@@ -3520,8 +4009,12 @@
         <f>Totals!E3-Totals!E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f>Totals!F3-Totals!F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <f>Totals!A4</f>
         <v>43893</v>
@@ -3542,8 +4035,12 @@
         <f>Totals!E4-Totals!E3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>Totals!F4-Totals!F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <f>Totals!A5</f>
         <v>43894</v>
@@ -3564,8 +4061,12 @@
         <f>Totals!E5-Totals!E4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f>Totals!F5-Totals!F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <f>Totals!A6</f>
         <v>43895</v>
@@ -3586,8 +4087,12 @@
         <f>Totals!E6-Totals!E5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f>Totals!F6-Totals!F5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <f>Totals!A7</f>
         <v>43896</v>
@@ -3608,8 +4113,12 @@
         <f>Totals!E7-Totals!E6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f>Totals!F7-Totals!F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <f>Totals!A8</f>
         <v>43897</v>
@@ -3630,8 +4139,12 @@
         <f>Totals!E8-Totals!E7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f>Totals!F8-Totals!F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <f>Totals!A9</f>
         <v>43898</v>
@@ -3652,8 +4165,12 @@
         <f>Totals!E9-Totals!E8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f>Totals!F9-Totals!F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <f>Totals!A10</f>
         <v>43899</v>
@@ -3674,8 +4191,12 @@
         <f>Totals!E10-Totals!E9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f>Totals!F10-Totals!F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <f>Totals!A11</f>
         <v>43900</v>
@@ -3696,8 +4217,12 @@
         <f>Totals!E11-Totals!E10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f>Totals!F11-Totals!F10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <f>Totals!A12</f>
         <v>43901</v>
@@ -3718,8 +4243,12 @@
         <f>Totals!E12-Totals!E11</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f>Totals!F12-Totals!F11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <f>Totals!A13</f>
         <v>43902</v>
@@ -3740,8 +4269,12 @@
         <f>Totals!E13-Totals!E12</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f>Totals!F13-Totals!F12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <f>Totals!A14</f>
         <v>43903</v>
@@ -3762,8 +4295,12 @@
         <f>Totals!E14-Totals!E13</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f>Totals!F14-Totals!F13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <f>Totals!A15</f>
         <v>43904</v>
@@ -3784,8 +4321,12 @@
         <f>Totals!E15-Totals!E14</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f>Totals!F15-Totals!F14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <f>Totals!A16</f>
         <v>43905</v>
@@ -3806,8 +4347,12 @@
         <f>Totals!E16-Totals!E15</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f>Totals!F16-Totals!F15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <f>Totals!A17</f>
         <v>43906</v>
@@ -3828,8 +4373,12 @@
         <f>Totals!E17-Totals!E16</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f>Totals!F17-Totals!F16</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <f>Totals!A18</f>
         <v>43907</v>
@@ -3850,8 +4399,12 @@
         <f>Totals!E18-Totals!E17</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f>Totals!F18-Totals!F17</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <f>Totals!A19</f>
         <v>43908</v>
@@ -3872,8 +4425,12 @@
         <f>Totals!E19-Totals!E18</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f>Totals!F19-Totals!F18</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <f>Totals!A20</f>
         <v>43909</v>
@@ -3894,8 +4451,12 @@
         <f>Totals!E20-Totals!E19</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>Totals!F20-Totals!F19</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <f>Totals!A21</f>
         <v>43910</v>
@@ -3916,8 +4477,12 @@
         <f>Totals!E21-Totals!E20</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>Totals!F21-Totals!F20</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <f>Totals!A22</f>
         <v>43911</v>
@@ -3938,8 +4503,12 @@
         <f>Totals!E22-Totals!E21</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f>Totals!F22-Totals!F21</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <f>Totals!A23</f>
         <v>43912</v>
@@ -3960,8 +4529,12 @@
         <f>Totals!E23-Totals!E22</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f>Totals!F23-Totals!F22</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <f>Totals!A24</f>
         <v>43913</v>
@@ -3982,8 +4555,12 @@
         <f>Totals!E24-Totals!E23</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f>Totals!F24-Totals!F23</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <f>Totals!A25</f>
         <v>43914</v>
@@ -4004,8 +4581,12 @@
         <f>Totals!E25-Totals!E24</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f>Totals!F25-Totals!F24</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <f>Totals!A26</f>
         <v>43915</v>
@@ -4026,8 +4607,12 @@
         <f>Totals!E26-Totals!E25</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f>Totals!F26-Totals!F25</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <f>Totals!A27</f>
         <v>43916</v>
@@ -4048,8 +4633,12 @@
         <f>Totals!E27-Totals!E26</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f>Totals!F27-Totals!F26</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <f>Totals!A28</f>
         <v>43917</v>
@@ -4070,8 +4659,12 @@
         <f>Totals!E28-Totals!E27</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f>Totals!F28-Totals!F27</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <f>Totals!A29</f>
         <v>43918</v>
@@ -4092,8 +4685,12 @@
         <f>Totals!E29-Totals!E28</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f>Totals!F29-Totals!F28</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <f>Totals!A30</f>
         <v>43919</v>
@@ -4114,8 +4711,12 @@
         <f>Totals!E30-Totals!E29</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f>Totals!F30-Totals!F29</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <f>Totals!A31</f>
         <v>43920</v>
@@ -4136,8 +4737,12 @@
         <f>Totals!E31-Totals!E30</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f>Totals!F31-Totals!F30</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <f>Totals!A32</f>
         <v>43921</v>
@@ -4158,8 +4763,12 @@
         <f>Totals!E32-Totals!E31</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f>Totals!F32-Totals!F31</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <f>Totals!A33</f>
         <v>43922</v>
@@ -4180,8 +4789,12 @@
         <f>Totals!E33-Totals!E32</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f>Totals!F33-Totals!F32</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <f>Totals!A34</f>
         <v>43923</v>
@@ -4202,8 +4815,12 @@
         <f>Totals!E34-Totals!E33</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f>Totals!F34-Totals!F33</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <f>Totals!A35</f>
         <v>43924</v>
@@ -4224,8 +4841,12 @@
         <f>Totals!E35-Totals!E34</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f>Totals!F35-Totals!F34</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <f>Totals!A36</f>
         <v>43925</v>
@@ -4246,8 +4867,12 @@
         <f>Totals!E36-Totals!E35</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f>Totals!F36-Totals!F35</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <f>Totals!A37</f>
         <v>43926</v>
@@ -4268,8 +4893,12 @@
         <f>Totals!E37-Totals!E36</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f>Totals!F37-Totals!F36</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <f>Totals!A38</f>
         <v>43927</v>
@@ -4290,8 +4919,12 @@
         <f>Totals!E38-Totals!E37</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f>Totals!F38-Totals!F37</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <f>Totals!A39</f>
         <v>43928</v>
@@ -4312,8 +4945,12 @@
         <f>Totals!E39-Totals!E38</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f>Totals!F39-Totals!F38</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <f>Totals!A40</f>
         <v>43929</v>
@@ -4334,8 +4971,12 @@
         <f>Totals!E40-Totals!E39</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f>Totals!F40-Totals!F39</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <f>Totals!A41</f>
         <v>43930</v>
@@ -4356,8 +4997,12 @@
         <f>Totals!E41-Totals!E40</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f>Totals!F41-Totals!F40</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <f>Totals!A42</f>
         <v>43931</v>
@@ -4378,8 +5023,12 @@
         <f>Totals!E42-Totals!E41</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f>Totals!F42-Totals!F41</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <f>Totals!A43</f>
         <v>43932</v>
@@ -4400,8 +5049,12 @@
         <f>Totals!E43-Totals!E42</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f>Totals!F43-Totals!F42</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <f>Totals!A44</f>
         <v>43933</v>
@@ -4422,8 +5075,12 @@
         <f>Totals!E44-Totals!E43</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f>Totals!F44-Totals!F43</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <f>Totals!A45</f>
         <v>43934</v>
@@ -4444,8 +5101,12 @@
         <f>Totals!E45-Totals!E44</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f>Totals!F45-Totals!F44</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <f>Totals!A46</f>
         <v>43935</v>
@@ -4466,8 +5127,12 @@
         <f>Totals!E46-Totals!E45</f>
         <v>189</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f>Totals!F46-Totals!F45</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <f>Totals!A47</f>
         <v>43936</v>
@@ -4488,8 +5153,12 @@
         <f>Totals!E47-Totals!E46</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f>Totals!F47-Totals!F46</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <f>Totals!A48</f>
         <v>43937</v>
@@ -4510,8 +5179,12 @@
         <f>Totals!E48-Totals!E47</f>
         <v>199</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f>Totals!F48-Totals!F47</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <f>Totals!A49</f>
         <v>43938</v>
@@ -4532,8 +5205,12 @@
         <f>Totals!E49-Totals!E48</f>
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f>Totals!F49-Totals!F48</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <f>Totals!A50</f>
         <v>43939</v>
@@ -4554,8 +5231,12 @@
         <f>Totals!E50-Totals!E49</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f>Totals!F50-Totals!F49</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <f>Totals!A51</f>
         <v>43940</v>
@@ -4576,8 +5257,12 @@
         <f>Totals!E51-Totals!E50</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f>Totals!F51-Totals!F50</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <f>Totals!A52</f>
         <v>43941</v>
@@ -4598,8 +5283,12 @@
         <f>Totals!E52-Totals!E51</f>
         <v>185</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f>Totals!F52-Totals!F51</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <f>Totals!A53</f>
         <v>43942</v>
@@ -4620,8 +5309,12 @@
         <f>Totals!E53-Totals!E52</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f>Totals!F53-Totals!F52</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <f>Totals!A54</f>
         <v>43943</v>
@@ -4642,8 +5335,12 @@
         <f>Totals!E54-Totals!E53</f>
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f>Totals!F54-Totals!F53</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <f>Totals!A55</f>
         <v>43944</v>
@@ -4664,8 +5361,12 @@
         <f>Totals!E55-Totals!E54</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f>Totals!F55-Totals!F54</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <f>Totals!A56</f>
         <v>43945</v>
@@ -4686,8 +5387,12 @@
         <f>Totals!E56-Totals!E55</f>
         <v>194</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f>Totals!F56-Totals!F55</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <f>Totals!A57</f>
         <v>43946</v>
@@ -4708,8 +5413,12 @@
         <f>Totals!E57-Totals!E56</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f>Totals!F57-Totals!F56</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <f>Totals!A58</f>
         <v>43947</v>
@@ -4730,8 +5439,12 @@
         <f>Totals!E58-Totals!E57</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f>Totals!F58-Totals!F57</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <f>Totals!A59</f>
         <v>43948</v>
@@ -4752,8 +5465,12 @@
         <f>Totals!E59-Totals!E58</f>
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f>Totals!F59-Totals!F58</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <f>Totals!A60</f>
         <v>43949</v>
@@ -4774,8 +5491,12 @@
         <f>Totals!E60-Totals!E59</f>
         <v>166</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f>Totals!F60-Totals!F59</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <f>Totals!A61</f>
         <v>43950</v>
@@ -4796,8 +5517,12 @@
         <f>Totals!E61-Totals!E60</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f>Totals!F61-Totals!F60</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <f>Totals!A62</f>
         <v>43951</v>
@@ -4818,8 +5543,12 @@
         <f>Totals!E62-Totals!E61</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f>Totals!F62-Totals!F61</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <f>Totals!A63</f>
         <v>43952</v>
@@ -4840,8 +5569,12 @@
         <f>Totals!E63-Totals!E62</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f>Totals!F63-Totals!F62</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <f>Totals!A64</f>
         <v>43953</v>
@@ -4862,8 +5595,12 @@
         <f>Totals!E64-Totals!E63</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f>Totals!F64-Totals!F63</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <f>Totals!A65</f>
         <v>43954</v>
@@ -4884,8 +5621,12 @@
         <f>Totals!E65-Totals!E64</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f>Totals!F65-Totals!F64</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <f>Totals!A66</f>
         <v>43955</v>
@@ -4906,8 +5647,12 @@
         <f>Totals!E66-Totals!E65</f>
         <v>139</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f>Totals!F66-Totals!F65</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <f>Totals!A67</f>
         <v>43956</v>
@@ -4928,8 +5673,12 @@
         <f>Totals!E67-Totals!E66</f>
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f>Totals!F67-Totals!F66</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <f>Totals!A68</f>
         <v>43957</v>
@@ -4950,8 +5699,12 @@
         <f>Totals!E68-Totals!E67</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f>Totals!F68-Totals!F67</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <f>Totals!A69</f>
         <v>43958</v>
@@ -4972,8 +5725,12 @@
         <f>Totals!E69-Totals!E68</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f>Totals!F69-Totals!F68</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <f>Totals!A70</f>
         <v>43959</v>
@@ -4994,8 +5751,12 @@
         <f>Totals!E70-Totals!E69</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f>Totals!F70-Totals!F69</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <f>Totals!A71</f>
         <v>43960</v>
@@ -5016,8 +5777,12 @@
         <f>Totals!E71-Totals!E70</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f>Totals!F71-Totals!F70</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <f>Totals!A72</f>
         <v>43961</v>
@@ -5038,8 +5803,12 @@
         <f>Totals!E72-Totals!E71</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <f>Totals!F72-Totals!F71</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <f>Totals!A73</f>
         <v>43962</v>
@@ -5060,8 +5829,12 @@
         <f>Totals!E73-Totals!E72</f>
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <f>Totals!F73-Totals!F72</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <f>Totals!A74</f>
         <v>43963</v>
@@ -5082,8 +5855,12 @@
         <f>Totals!E74-Totals!E73</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f>Totals!F74-Totals!F73</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <f>Totals!A75</f>
         <v>43964</v>
@@ -5104,8 +5881,12 @@
         <f>Totals!E75-Totals!E74</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <f>Totals!F75-Totals!F74</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <f>Totals!A76</f>
         <v>43965</v>
@@ -5126,8 +5907,12 @@
         <f>Totals!E76-Totals!E75</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <f>Totals!F76-Totals!F75</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <f>Totals!A77</f>
         <v>43966</v>
@@ -5148,8 +5933,12 @@
         <f>Totals!E77-Totals!E76</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <f>Totals!F77-Totals!F76</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <f>Totals!A78</f>
         <v>43967</v>
@@ -5170,8 +5959,12 @@
         <f>Totals!E78-Totals!E77</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <f>Totals!F78-Totals!F77</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <f>Totals!A79</f>
         <v>43968</v>
@@ -5192,8 +5985,12 @@
         <f>Totals!E79-Totals!E78</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <f>Totals!F79-Totals!F78</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <f>Totals!A80</f>
         <v>43969</v>
@@ -5214,8 +6011,12 @@
         <f>Totals!E80-Totals!E79</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <f>Totals!F80-Totals!F79</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <f>Totals!A81</f>
         <v>43970</v>
@@ -5236,8 +6037,12 @@
         <f>Totals!E81-Totals!E80</f>
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <f>Totals!F81-Totals!F80</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <f>Totals!A82</f>
         <v>43971</v>
@@ -5258,8 +6063,12 @@
         <f>Totals!E82-Totals!E81</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <f>Totals!F82-Totals!F81</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <f>Totals!A83</f>
         <v>43972</v>
@@ -5280,8 +6089,12 @@
         <f>Totals!E83-Totals!E82</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <f>Totals!F83-Totals!F82</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <f>Totals!A84</f>
         <v>43973</v>
@@ -5298,8 +6111,12 @@
         <f>Totals!E84-Totals!E83</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <f>Totals!F84-Totals!F83</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <f>Totals!A85</f>
         <v>43974</v>
@@ -5312,8 +6129,12 @@
         <f>Totals!E85-Totals!E84</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <f>Totals!F85-Totals!F84</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <f>Totals!A86</f>
         <v>43975</v>
@@ -5322,1886 +6143,1894 @@
         <f>Totals!E86-Totals!E85</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <f>Totals!F86-Totals!F85</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <f>Totals!A87</f>
         <v>43976</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <f>Totals!F87-Totals!F86</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <f>Totals!A88</f>
         <v>43977</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <f>Totals!A89</f>
         <v>43978</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <f>Totals!A90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <f>Totals!A91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <f>Totals!A92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <f>Totals!A93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <f>Totals!A94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <f>Totals!A95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <f>Totals!A96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="1">
         <f>Totals!A97</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="1">
         <f>Totals!A98</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="1">
         <f>Totals!A99</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="1">
         <f>Totals!A100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" s="1">
         <f>Totals!A101</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102" s="1">
         <f>Totals!A102</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103" s="1">
         <f>Totals!A103</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104" s="1">
         <f>Totals!A104</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105" s="1">
         <f>Totals!A105</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106" s="1">
         <f>Totals!A106</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107" s="1">
         <f>Totals!A107</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108" s="1">
         <f>Totals!A108</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109" s="1">
         <f>Totals!A109</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1">
       <c r="A110" s="1">
         <f>Totals!A110</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1">
       <c r="A111" s="1">
         <f>Totals!A111</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1">
       <c r="A112" s="1">
         <f>Totals!A112</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1">
       <c r="A113" s="1">
         <f>Totals!A113</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1">
       <c r="A114" s="1">
         <f>Totals!A114</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1">
       <c r="A115" s="1">
         <f>Totals!A115</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1">
       <c r="A116" s="1">
         <f>Totals!A116</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1">
       <c r="A117" s="1">
         <f>Totals!A117</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1">
       <c r="A118" s="1">
         <f>Totals!A118</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1">
       <c r="A119" s="1">
         <f>Totals!A119</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1">
       <c r="A120" s="1">
         <f>Totals!A120</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1">
       <c r="A121" s="1">
         <f>Totals!A121</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1">
       <c r="A122" s="1">
         <f>Totals!A122</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1">
       <c r="A123" s="1">
         <f>Totals!A123</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1">
       <c r="A124" s="1">
         <f>Totals!A124</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1">
       <c r="A125" s="1">
         <f>Totals!A125</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1">
       <c r="A126" s="1">
         <f>Totals!A126</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1">
       <c r="A127" s="1">
         <f>Totals!A127</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1">
       <c r="A128" s="1">
         <f>Totals!A128</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1">
       <c r="A129" s="1">
         <f>Totals!A129</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1">
       <c r="A130" s="1">
         <f>Totals!A130</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1">
       <c r="A131" s="1">
         <f>Totals!A131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1">
       <c r="A132" s="1">
         <f>Totals!A132</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1">
       <c r="A133" s="1">
         <f>Totals!A133</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1">
       <c r="A134" s="1">
         <f>Totals!A134</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1">
       <c r="A135" s="1">
         <f>Totals!A135</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1">
       <c r="A136" s="1">
         <f>Totals!A136</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1">
       <c r="A137" s="1">
         <f>Totals!A137</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1">
       <c r="A138" s="1">
         <f>Totals!A138</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1">
       <c r="A139" s="1">
         <f>Totals!A139</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1">
       <c r="A140" s="1">
         <f>Totals!A140</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1">
       <c r="A141" s="1">
         <f>Totals!A141</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1">
       <c r="A142" s="1">
         <f>Totals!A142</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1">
       <c r="A143" s="1">
         <f>Totals!A143</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1">
       <c r="A144" s="1">
         <f>Totals!A144</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1">
       <c r="A145" s="1">
         <f>Totals!A145</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1">
       <c r="A146" s="1">
         <f>Totals!A146</f>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1">
       <c r="A147" s="1">
         <f>Totals!A147</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1">
       <c r="A148" s="1">
         <f>Totals!A148</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1">
       <c r="A149" s="1">
         <f>Totals!A149</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1">
       <c r="A150" s="1">
         <f>Totals!A150</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1">
       <c r="A151" s="1">
         <f>Totals!A151</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1">
       <c r="A152" s="1">
         <f>Totals!A152</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1">
       <c r="A153" s="1">
         <f>Totals!A153</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1">
       <c r="A154" s="1">
         <f>Totals!A154</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1">
       <c r="A155" s="1">
         <f>Totals!A155</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1">
       <c r="A156" s="1">
         <f>Totals!A156</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1">
       <c r="A157" s="1">
         <f>Totals!A157</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1">
       <c r="A158" s="1">
         <f>Totals!A158</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1">
       <c r="A159" s="1">
         <f>Totals!A159</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1">
       <c r="A160" s="1">
         <f>Totals!A160</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1">
       <c r="A161" s="1">
         <f>Totals!A161</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1">
       <c r="A162" s="1">
         <f>Totals!A162</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1">
       <c r="A163" s="1">
         <f>Totals!A163</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1">
       <c r="A164" s="1">
         <f>Totals!A164</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1">
       <c r="A165" s="1">
         <f>Totals!A165</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1">
       <c r="A166" s="1">
         <f>Totals!A166</f>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1">
       <c r="A167" s="1">
         <f>Totals!A167</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1">
       <c r="A168" s="1">
         <f>Totals!A168</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1">
       <c r="A169" s="1">
         <f>Totals!A169</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1">
       <c r="A170" s="1">
         <f>Totals!A170</f>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1">
       <c r="A171" s="1">
         <f>Totals!A171</f>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1">
       <c r="A172" s="1">
         <f>Totals!A172</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1">
       <c r="A173" s="1">
         <f>Totals!A173</f>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1">
       <c r="A174" s="1">
         <f>Totals!A174</f>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1">
       <c r="A175" s="1">
         <f>Totals!A175</f>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1">
       <c r="A176" s="1">
         <f>Totals!A176</f>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1">
       <c r="A177" s="1">
         <f>Totals!A177</f>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1">
       <c r="A178" s="1">
         <f>Totals!A178</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1">
       <c r="A179" s="1">
         <f>Totals!A179</f>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1">
       <c r="A180" s="1">
         <f>Totals!A180</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1">
       <c r="A181" s="1">
         <f>Totals!A181</f>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1">
       <c r="A182" s="1">
         <f>Totals!A182</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1">
       <c r="A183" s="1">
         <f>Totals!A183</f>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1">
       <c r="A184" s="1">
         <f>Totals!A184</f>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1">
       <c r="A185" s="1">
         <f>Totals!A185</f>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1">
       <c r="A186" s="1">
         <f>Totals!A186</f>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1">
       <c r="A187" s="1">
         <f>Totals!A187</f>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1">
       <c r="A188" s="1">
         <f>Totals!A188</f>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1">
       <c r="A189" s="1">
         <f>Totals!A189</f>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1">
       <c r="A190" s="1">
         <f>Totals!A190</f>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1">
       <c r="A191" s="1">
         <f>Totals!A191</f>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1">
       <c r="A192" s="1">
         <f>Totals!A192</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1">
       <c r="A193" s="1">
         <f>Totals!A193</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1">
       <c r="A194" s="1">
         <f>Totals!A194</f>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1">
       <c r="A195" s="1">
         <f>Totals!A195</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1">
       <c r="A196" s="1">
         <f>Totals!A196</f>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1">
       <c r="A197" s="1">
         <f>Totals!A197</f>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1">
       <c r="A198" s="1">
         <f>Totals!A198</f>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1">
       <c r="A199" s="1">
         <f>Totals!A199</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1">
       <c r="A200" s="1">
         <f>Totals!A200</f>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1">
       <c r="A201" s="1">
         <f>Totals!A201</f>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1">
       <c r="A202" s="1">
         <f>Totals!A202</f>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203" s="1">
         <f>Totals!A203</f>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204" s="1">
         <f>Totals!A204</f>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205" s="1">
         <f>Totals!A205</f>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206" s="1">
         <f>Totals!A206</f>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207" s="1">
         <f>Totals!A207</f>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208" s="1">
         <f>Totals!A208</f>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1">
       <c r="A209" s="1">
         <f>Totals!A209</f>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210" s="1">
         <f>Totals!A210</f>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1">
       <c r="A211" s="1">
         <f>Totals!A211</f>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1">
       <c r="A212" s="1">
         <f>Totals!A212</f>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1">
       <c r="A213" s="1">
         <f>Totals!A213</f>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1">
       <c r="A214" s="1">
         <f>Totals!A214</f>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1">
       <c r="A215" s="1">
         <f>Totals!A215</f>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1">
       <c r="A216" s="1">
         <f>Totals!A216</f>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217" s="1">
         <f>Totals!A217</f>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218" s="1">
         <f>Totals!A218</f>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219" s="1">
         <f>Totals!A219</f>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1">
       <c r="A220" s="1">
         <f>Totals!A220</f>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221" s="1">
         <f>Totals!A221</f>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1">
       <c r="A222" s="1">
         <f>Totals!A222</f>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223" s="1">
         <f>Totals!A223</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1">
       <c r="A224" s="1">
         <f>Totals!A224</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1">
       <c r="A225" s="1">
         <f>Totals!A225</f>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1">
       <c r="A226" s="1">
         <f>Totals!A226</f>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1">
       <c r="A227" s="1">
         <f>Totals!A227</f>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1">
       <c r="A228" s="1">
         <f>Totals!A228</f>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1">
       <c r="A229" s="1">
         <f>Totals!A229</f>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1">
       <c r="A230" s="1">
         <f>Totals!A230</f>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1">
       <c r="A231" s="1">
         <f>Totals!A231</f>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1">
       <c r="A232" s="1">
         <f>Totals!A232</f>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1">
       <c r="A233" s="1">
         <f>Totals!A233</f>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1">
       <c r="A234" s="1">
         <f>Totals!A234</f>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" s="1">
         <f>Totals!A235</f>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" s="1">
         <f>Totals!A236</f>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" s="1">
         <f>Totals!A237</f>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238" s="1">
         <f>Totals!A238</f>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" s="1">
         <f>Totals!A239</f>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" s="1">
         <f>Totals!A240</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
       <c r="A241" s="1">
         <f>Totals!A241</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1">
       <c r="A242" s="1">
         <f>Totals!A242</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1">
       <c r="A243" s="1">
         <f>Totals!A243</f>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1">
       <c r="A244" s="1">
         <f>Totals!A244</f>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1">
       <c r="A245" s="1">
         <f>Totals!A245</f>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1">
       <c r="A246" s="1">
         <f>Totals!A246</f>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" s="1">
         <f>Totals!A247</f>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" s="1">
         <f>Totals!A248</f>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" s="1">
         <f>Totals!A249</f>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" s="1">
         <f>Totals!A250</f>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" s="1">
         <f>Totals!A251</f>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" s="1">
         <f>Totals!A252</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" s="1">
         <f>Totals!A253</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" s="1">
         <f>Totals!A254</f>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" s="1">
         <f>Totals!A255</f>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1">
       <c r="A256" s="1">
         <f>Totals!A256</f>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1">
       <c r="A257" s="1">
         <f>Totals!A257</f>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1">
       <c r="A258" s="1">
         <f>Totals!A258</f>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
       <c r="A259" s="1">
         <f>Totals!A259</f>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1">
       <c r="A260" s="1">
         <f>Totals!A260</f>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1">
       <c r="A261" s="1">
         <f>Totals!A261</f>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1">
       <c r="A262" s="1">
         <f>Totals!A262</f>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1">
       <c r="A263" s="1">
         <f>Totals!A263</f>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1">
       <c r="A264" s="1">
         <f>Totals!A264</f>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1">
       <c r="A265" s="1">
         <f>Totals!A265</f>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1">
       <c r="A266" s="1">
         <f>Totals!A266</f>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1">
       <c r="A267" s="1">
         <f>Totals!A267</f>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1">
       <c r="A268" s="1">
         <f>Totals!A268</f>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1">
       <c r="A269" s="1">
         <f>Totals!A269</f>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1">
       <c r="A270" s="1">
         <f>Totals!A270</f>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1">
       <c r="A271" s="1">
         <f>Totals!A271</f>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1">
       <c r="A272" s="1">
         <f>Totals!A272</f>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1">
       <c r="A273" s="1">
         <f>Totals!A273</f>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1">
       <c r="A274" s="1">
         <f>Totals!A274</f>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1">
       <c r="A275" s="1">
         <f>Totals!A275</f>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1">
       <c r="A276" s="1">
         <f>Totals!A276</f>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1">
       <c r="A277" s="1">
         <f>Totals!A277</f>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1">
       <c r="A278" s="1">
         <f>Totals!A278</f>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1">
       <c r="A279" s="1">
         <f>Totals!A279</f>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1">
       <c r="A280" s="1">
         <f>Totals!A280</f>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1">
       <c r="A281" s="1">
         <f>Totals!A281</f>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1">
       <c r="A282" s="1">
         <f>Totals!A282</f>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1">
       <c r="A283" s="1">
         <f>Totals!A283</f>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1">
       <c r="A284" s="1">
         <f>Totals!A284</f>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1">
       <c r="A285" s="1">
         <f>Totals!A285</f>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1">
       <c r="A286" s="1">
         <f>Totals!A286</f>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1">
       <c r="A287" s="1">
         <f>Totals!A287</f>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1">
       <c r="A288" s="1">
         <f>Totals!A288</f>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1">
       <c r="A289" s="1">
         <f>Totals!A289</f>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1">
       <c r="A290" s="1">
         <f>Totals!A290</f>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1">
       <c r="A291" s="1">
         <f>Totals!A291</f>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1">
       <c r="A292" s="1">
         <f>Totals!A292</f>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1">
       <c r="A293" s="1">
         <f>Totals!A293</f>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1">
       <c r="A294" s="1">
         <f>Totals!A294</f>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1">
       <c r="A295" s="1">
         <f>Totals!A295</f>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1">
       <c r="A296" s="1">
         <f>Totals!A296</f>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1">
       <c r="A297" s="1">
         <f>Totals!A297</f>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1">
       <c r="A298" s="1">
         <f>Totals!A298</f>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1">
       <c r="A299" s="1">
         <f>Totals!A299</f>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1">
       <c r="A300" s="1">
         <f>Totals!A300</f>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1">
       <c r="A301" s="1">
         <f>Totals!A301</f>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1">
       <c r="A302" s="1">
         <f>Totals!A302</f>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1">
       <c r="A303" s="1">
         <f>Totals!A303</f>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1">
       <c r="A304" s="1">
         <f>Totals!A304</f>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1">
       <c r="A305" s="1">
         <f>Totals!A305</f>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1">
       <c r="A306" s="1">
         <f>Totals!A306</f>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1">
       <c r="A307" s="1">
         <f>Totals!A307</f>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1">
       <c r="A308" s="1">
         <f>Totals!A308</f>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1">
       <c r="A309" s="1">
         <f>Totals!A309</f>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1">
       <c r="A310" s="1">
         <f>Totals!A310</f>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1">
       <c r="A311" s="1">
         <f>Totals!A311</f>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1">
       <c r="A312" s="1">
         <f>Totals!A312</f>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1">
       <c r="A313" s="1">
         <f>Totals!A313</f>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1">
       <c r="A314" s="1">
         <f>Totals!A314</f>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1">
       <c r="A315" s="1">
         <f>Totals!A315</f>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1">
       <c r="A316" s="1">
         <f>Totals!A316</f>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1">
       <c r="A317" s="1">
         <f>Totals!A317</f>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1">
       <c r="A318" s="1">
         <f>Totals!A318</f>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1">
       <c r="A319" s="1">
         <f>Totals!A319</f>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1">
       <c r="A320" s="1">
         <f>Totals!A320</f>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1">
       <c r="A321" s="1">
         <f>Totals!A321</f>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1">
       <c r="A322" s="1">
         <f>Totals!A322</f>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" s="1">
         <f>Totals!A323</f>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" s="1">
         <f>Totals!A324</f>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" s="1">
         <f>Totals!A325</f>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1">
       <c r="A326" s="1">
         <f>Totals!A326</f>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" s="1">
         <f>Totals!A327</f>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" s="1">
         <f>Totals!A328</f>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1">
       <c r="A329" s="1">
         <f>Totals!A329</f>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" s="1">
         <f>Totals!A330</f>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" s="1">
         <f>Totals!A331</f>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" s="1">
         <f>Totals!A332</f>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" s="1">
         <f>Totals!A333</f>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1">
       <c r="A334" s="1">
         <f>Totals!A334</f>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335" s="1">
         <f>Totals!A335</f>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1">
       <c r="A336" s="1">
         <f>Totals!A336</f>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337" s="1">
         <f>Totals!A337</f>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338" s="1">
         <f>Totals!A338</f>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339" s="1">
         <f>Totals!A339</f>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1">
       <c r="A340" s="1">
         <f>Totals!A340</f>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1">
       <c r="A341" s="1">
         <f>Totals!A341</f>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1">
       <c r="A342" s="1">
         <f>Totals!A342</f>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1">
       <c r="A343" s="1">
         <f>Totals!A343</f>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1">
       <c r="A344" s="1">
         <f>Totals!A344</f>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1">
       <c r="A345" s="1">
         <f>Totals!A345</f>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346" s="1">
         <f>Totals!A346</f>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1">
       <c r="A347" s="1">
         <f>Totals!A347</f>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1">
       <c r="A348" s="1">
         <f>Totals!A348</f>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349" s="1">
         <f>Totals!A349</f>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350" s="1">
         <f>Totals!A350</f>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1">
       <c r="A351" s="1">
         <f>Totals!A351</f>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1">
       <c r="A352" s="1">
         <f>Totals!A352</f>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1">
       <c r="A353" s="1">
         <f>Totals!A353</f>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1">
       <c r="A354" s="1">
         <f>Totals!A354</f>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1">
       <c r="A355" s="1">
         <f>Totals!A355</f>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1">
       <c r="A356" s="1">
         <f>Totals!A356</f>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1">
       <c r="A357" s="1">
         <f>Totals!A357</f>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1">
       <c r="A358" s="1">
         <f>Totals!A358</f>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1">
       <c r="A359" s="1">
         <f>Totals!A359</f>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1">
       <c r="A360" s="1">
         <f>Totals!A360</f>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1">
       <c r="A361" s="1">
         <f>Totals!A361</f>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1">
       <c r="A362" s="1">
         <f>Totals!A362</f>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1">
       <c r="A363" s="1">
         <f>Totals!A363</f>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1">
       <c r="A364" s="1">
         <f>Totals!A364</f>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1">
       <c r="A365" s="1">
         <f>Totals!A365</f>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1">
       <c r="A366" s="1">
         <f>Totals!A366</f>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1">
       <c r="A367" s="1">
         <f>Totals!A367</f>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1">
       <c r="A368" s="1">
         <f>Totals!A368</f>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369" s="1">
         <f>Totals!A369</f>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370" s="1">
         <f>Totals!A370</f>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371" s="1">
         <f>Totals!A371</f>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372" s="1">
         <f>Totals!A372</f>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373" s="1">
         <f>Totals!A373</f>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374" s="1">
         <f>Totals!A374</f>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375" s="1">
         <f>Totals!A375</f>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376" s="1">
         <f>Totals!A376</f>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377" s="1">
         <f>Totals!A377</f>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378" s="1">
         <f>Totals!A378</f>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379" s="1">
         <f>Totals!A379</f>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380" s="1">
         <f>Totals!A380</f>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381" s="1">
         <f>Totals!A381</f>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382" s="1">
         <f>Totals!A382</f>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383" s="1">
         <f>Totals!A383</f>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384" s="1">
         <f>Totals!A384</f>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385" s="1">
         <f>Totals!A385</f>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386" s="1">
         <f>Totals!A386</f>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387" s="1">
         <f>Totals!A387</f>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388" s="1">
         <f>Totals!A388</f>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389" s="1">
         <f>Totals!A389</f>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390" s="1">
         <f>Totals!A390</f>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391" s="1">
         <f>Totals!A391</f>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392" s="1">
         <f>Totals!A392</f>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393" s="1">
         <f>Totals!A393</f>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394" s="1">
         <f>Totals!A394</f>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395" s="1">
         <f>Totals!A395</f>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396" s="1">
         <f>Totals!A396</f>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397" s="1">
         <f>Totals!A397</f>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398" s="1">
         <f>Totals!A398</f>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399" s="1">
         <f>Totals!A399</f>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400" s="1">
         <f>Totals!A400</f>
         <v>0</v>

--- a/chesco/joint.xlsx
+++ b/chesco/joint.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardw/Dropbox/covid/chesco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Music/Dropbox/covid/chesco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7AD76-7846-9548-8859-9B1523919A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A3FA1-94E4-4A4A-A072-0CD715891C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" activeTab="2" xr2:uid="{A9DD6730-0F2E-5343-B468-2630B13945F8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" activeTab="1" xr2:uid="{A9DD6730-0F2E-5343-B468-2630B13945F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
     <sheet name="Dailies" sheetId="3" r:id="rId2"/>
     <sheet name="Chart1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,25 +36,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,11 +65,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,159 +757,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9D3C-5447-82F7-3FF5441FC0CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Totals!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>26-May-20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Totals!$A$72:$A$86</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>43961</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43962</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43963</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43964</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43965</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43967</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43968</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43970</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43972</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43974</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43975</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dailies!$F$72:$F$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA39-FD48-9AA7-578A399CA72A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1184,16 +1009,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.87878513073881814"/>
-          <c:y val="7.6878895750391016E-2"/>
-          <c:w val="0.10219047828655574"/>
-          <c:h val="0.17029934969445859"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -1822,7 +1637,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7269E6AC-9DD6-FF49-90C7-6D64F2776714}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2159,15 +1974,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829C246F-97E5-7041-96F6-5431D0C3A3E3}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2183,11 +1998,8 @@
       <c r="E1" s="1">
         <v>43976</v>
       </c>
-      <c r="F1" s="1">
-        <v>43977</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
@@ -2203,11 +2015,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43892</v>
       </c>
@@ -2223,11 +2032,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43893</v>
       </c>
@@ -2243,11 +2049,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43894</v>
       </c>
@@ -2263,11 +2066,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43895</v>
       </c>
@@ -2283,11 +2083,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43896</v>
       </c>
@@ -2303,11 +2100,8 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43897</v>
       </c>
@@ -2323,11 +2117,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43898</v>
       </c>
@@ -2343,11 +2134,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43899</v>
       </c>
@@ -2363,11 +2151,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43900</v>
       </c>
@@ -2383,11 +2168,8 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43901</v>
       </c>
@@ -2403,11 +2185,8 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43902</v>
       </c>
@@ -2423,11 +2202,8 @@
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -2443,11 +2219,8 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43904</v>
       </c>
@@ -2463,11 +2236,8 @@
       <c r="E15">
         <v>12</v>
       </c>
-      <c r="F15" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43905</v>
       </c>
@@ -2483,11 +2253,8 @@
       <c r="E16">
         <v>16</v>
       </c>
-      <c r="F16" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43906</v>
       </c>
@@ -2503,11 +2270,8 @@
       <c r="E17">
         <v>32</v>
       </c>
-      <c r="F17" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43907</v>
       </c>
@@ -2523,11 +2287,8 @@
       <c r="E18">
         <v>53</v>
       </c>
-      <c r="F18" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43908</v>
       </c>
@@ -2543,11 +2304,8 @@
       <c r="E19">
         <v>78</v>
       </c>
-      <c r="F19" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43909</v>
       </c>
@@ -2563,11 +2321,8 @@
       <c r="E20">
         <v>134</v>
       </c>
-      <c r="F20" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43910</v>
       </c>
@@ -2583,11 +2338,8 @@
       <c r="E21">
         <v>168</v>
       </c>
-      <c r="F21" s="2">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43911</v>
       </c>
@@ -2603,11 +2355,8 @@
       <c r="E22">
         <v>194</v>
       </c>
-      <c r="F22" s="2">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43912</v>
       </c>
@@ -2623,11 +2372,8 @@
       <c r="E23">
         <v>223</v>
       </c>
-      <c r="F23" s="2">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43913</v>
       </c>
@@ -2643,11 +2389,8 @@
       <c r="E24">
         <v>257</v>
       </c>
-      <c r="F24" s="2">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43914</v>
       </c>
@@ -2663,11 +2406,8 @@
       <c r="E25">
         <v>302</v>
       </c>
-      <c r="F25" s="2">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43915</v>
       </c>
@@ -2683,11 +2423,8 @@
       <c r="E26">
         <v>357</v>
       </c>
-      <c r="F26" s="2">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43916</v>
       </c>
@@ -2703,11 +2440,8 @@
       <c r="E27">
         <v>423</v>
       </c>
-      <c r="F27" s="2">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43917</v>
       </c>
@@ -2723,11 +2457,8 @@
       <c r="E28">
         <v>498</v>
       </c>
-      <c r="F28" s="2">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43918</v>
       </c>
@@ -2743,11 +2474,8 @@
       <c r="E29">
         <v>548</v>
       </c>
-      <c r="F29" s="2">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43919</v>
       </c>
@@ -2763,11 +2491,8 @@
       <c r="E30">
         <v>593</v>
       </c>
-      <c r="F30" s="2">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43920</v>
       </c>
@@ -2783,11 +2508,8 @@
       <c r="E31">
         <v>693</v>
       </c>
-      <c r="F31" s="2">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43921</v>
       </c>
@@ -2803,11 +2525,8 @@
       <c r="E32">
         <v>792</v>
       </c>
-      <c r="F32" s="2">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43922</v>
       </c>
@@ -2823,11 +2542,8 @@
       <c r="E33">
         <v>899</v>
       </c>
-      <c r="F33" s="2">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43923</v>
       </c>
@@ -2843,11 +2559,8 @@
       <c r="E34">
         <v>998</v>
       </c>
-      <c r="F34" s="2">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43924</v>
       </c>
@@ -2863,11 +2576,8 @@
       <c r="E35">
         <v>1127</v>
       </c>
-      <c r="F35" s="2">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43925</v>
       </c>
@@ -2883,11 +2593,8 @@
       <c r="E36">
         <v>1193</v>
       </c>
-      <c r="F36" s="2">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43926</v>
       </c>
@@ -2903,11 +2610,8 @@
       <c r="E37">
         <v>1252</v>
       </c>
-      <c r="F37" s="2">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43927</v>
       </c>
@@ -2923,11 +2627,8 @@
       <c r="E38">
         <v>1375</v>
       </c>
-      <c r="F38" s="2">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43928</v>
       </c>
@@ -2943,11 +2644,8 @@
       <c r="E39">
         <v>1511</v>
       </c>
-      <c r="F39" s="2">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43929</v>
       </c>
@@ -2963,11 +2661,8 @@
       <c r="E40">
         <v>1676</v>
       </c>
-      <c r="F40" s="2">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43930</v>
       </c>
@@ -2983,11 +2678,8 @@
       <c r="E41">
         <v>1783</v>
       </c>
-      <c r="F41" s="2">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43931</v>
       </c>
@@ -3003,11 +2695,8 @@
       <c r="E42">
         <v>1911</v>
       </c>
-      <c r="F42" s="2">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43932</v>
       </c>
@@ -3023,11 +2712,8 @@
       <c r="E43">
         <v>1987</v>
       </c>
-      <c r="F43" s="2">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43933</v>
       </c>
@@ -3043,11 +2729,8 @@
       <c r="E44">
         <v>2033</v>
       </c>
-      <c r="F44" s="2">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43934</v>
       </c>
@@ -3063,11 +2746,8 @@
       <c r="E45">
         <v>2156</v>
       </c>
-      <c r="F45" s="2">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43935</v>
       </c>
@@ -3083,11 +2763,8 @@
       <c r="E46">
         <v>2345</v>
       </c>
-      <c r="F46" s="2">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43936</v>
       </c>
@@ -3103,11 +2780,8 @@
       <c r="E47">
         <v>2540</v>
       </c>
-      <c r="F47" s="2">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43937</v>
       </c>
@@ -3123,11 +2797,8 @@
       <c r="E48">
         <v>2739</v>
       </c>
-      <c r="F48" s="2">
-        <v>2739</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43938</v>
       </c>
@@ -3143,11 +2814,8 @@
       <c r="E49">
         <v>2876</v>
       </c>
-      <c r="F49" s="2">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43939</v>
       </c>
@@ -3163,11 +2831,8 @@
       <c r="E50">
         <v>2968</v>
       </c>
-      <c r="F50" s="2">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43940</v>
       </c>
@@ -3183,11 +2848,8 @@
       <c r="E51">
         <v>3023</v>
       </c>
-      <c r="F51" s="2">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43941</v>
       </c>
@@ -3203,11 +2865,8 @@
       <c r="E52">
         <v>3208</v>
       </c>
-      <c r="F52" s="2">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43942</v>
       </c>
@@ -3223,11 +2882,8 @@
       <c r="E53">
         <v>3354</v>
       </c>
-      <c r="F53" s="2">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43943</v>
       </c>
@@ -3243,11 +2899,8 @@
       <c r="E54">
         <v>3526</v>
       </c>
-      <c r="F54" s="2">
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43944</v>
       </c>
@@ -3263,11 +2916,8 @@
       <c r="E55">
         <v>3723</v>
       </c>
-      <c r="F55" s="2">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43945</v>
       </c>
@@ -3283,11 +2933,8 @@
       <c r="E56">
         <v>3917</v>
       </c>
-      <c r="F56" s="2">
-        <v>3916</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43946</v>
       </c>
@@ -3303,11 +2950,8 @@
       <c r="E57">
         <v>3980</v>
       </c>
-      <c r="F57" s="2">
-        <v>3979</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43947</v>
       </c>
@@ -3323,11 +2967,8 @@
       <c r="E58">
         <v>4027</v>
       </c>
-      <c r="F58" s="3">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43948</v>
       </c>
@@ -3343,11 +2984,8 @@
       <c r="E59">
         <v>4194</v>
       </c>
-      <c r="F59" s="3">
-        <v>4193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43949</v>
       </c>
@@ -3363,11 +3001,8 @@
       <c r="E60">
         <v>4360</v>
       </c>
-      <c r="F60" s="3">
-        <v>4359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43950</v>
       </c>
@@ -3383,11 +3018,8 @@
       <c r="E61">
         <v>4492</v>
       </c>
-      <c r="F61" s="3">
-        <v>4491</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43951</v>
       </c>
@@ -3403,11 +3035,8 @@
       <c r="E62">
         <v>4595</v>
       </c>
-      <c r="F62" s="3">
-        <v>4594</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43952</v>
       </c>
@@ -3423,11 +3052,8 @@
       <c r="E63">
         <v>4740</v>
       </c>
-      <c r="F63" s="3">
-        <v>4739</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43953</v>
       </c>
@@ -3443,11 +3069,8 @@
       <c r="E64">
         <v>4805</v>
       </c>
-      <c r="F64" s="3">
-        <v>4804</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43954</v>
       </c>
@@ -3463,11 +3086,8 @@
       <c r="E65">
         <v>4861</v>
       </c>
-      <c r="F65" s="3">
-        <v>4860</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43955</v>
       </c>
@@ -3483,11 +3103,8 @@
       <c r="E66">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
-        <v>4999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43956</v>
       </c>
@@ -3503,11 +3120,8 @@
       <c r="E67">
         <v>5111</v>
       </c>
-      <c r="F67" s="3">
-        <v>5110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43957</v>
       </c>
@@ -3523,11 +3137,8 @@
       <c r="E68">
         <v>5221</v>
       </c>
-      <c r="F68" s="3">
-        <v>5220</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43958</v>
       </c>
@@ -3543,11 +3154,8 @@
       <c r="E69">
         <v>5313</v>
       </c>
-      <c r="F69" s="3">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43959</v>
       </c>
@@ -3563,11 +3171,8 @@
       <c r="E70">
         <v>5376</v>
       </c>
-      <c r="F70" s="3">
-        <v>5375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43960</v>
       </c>
@@ -3583,11 +3188,8 @@
       <c r="E71">
         <v>5413</v>
       </c>
-      <c r="F71" s="3">
-        <v>5411</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43961</v>
       </c>
@@ -3603,11 +3205,8 @@
       <c r="E72">
         <v>5438</v>
       </c>
-      <c r="F72" s="3">
-        <v>5436</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43962</v>
       </c>
@@ -3623,11 +3222,8 @@
       <c r="E73">
         <v>5517</v>
       </c>
-      <c r="F73" s="3">
-        <v>5515</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43963</v>
       </c>
@@ -3643,11 +3239,8 @@
       <c r="E74">
         <v>5620</v>
       </c>
-      <c r="F74" s="3">
-        <v>5618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43964</v>
       </c>
@@ -3663,11 +3256,8 @@
       <c r="E75">
         <v>5704</v>
       </c>
-      <c r="F75" s="3">
-        <v>5702</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43965</v>
       </c>
@@ -3683,11 +3273,8 @@
       <c r="E76">
         <v>5810</v>
       </c>
-      <c r="F76" s="3">
-        <v>5808</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43966</v>
       </c>
@@ -3703,11 +3290,8 @@
       <c r="E77">
         <v>5912</v>
       </c>
-      <c r="F77" s="3">
-        <v>5910</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43967</v>
       </c>
@@ -3723,11 +3307,8 @@
       <c r="E78">
         <v>5936</v>
       </c>
-      <c r="F78" s="3">
-        <v>5934</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43968</v>
       </c>
@@ -3743,11 +3324,8 @@
       <c r="E79">
         <v>5961</v>
       </c>
-      <c r="F79" s="3">
-        <v>5959</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43969</v>
       </c>
@@ -3763,11 +3341,8 @@
       <c r="E80">
         <v>6048</v>
       </c>
-      <c r="F80" s="3">
-        <v>6046</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43970</v>
       </c>
@@ -3783,11 +3358,8 @@
       <c r="E81">
         <v>6131</v>
       </c>
-      <c r="F81" s="3">
-        <v>6129</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43971</v>
       </c>
@@ -3803,11 +3375,8 @@
       <c r="E82">
         <v>6190</v>
       </c>
-      <c r="F82" s="3">
-        <v>6189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43972</v>
       </c>
@@ -3823,11 +3392,8 @@
       <c r="E83">
         <v>6227</v>
       </c>
-      <c r="F83" s="3">
-        <v>6234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43973</v>
       </c>
@@ -3840,11 +3406,8 @@
       <c r="E84">
         <v>6246</v>
       </c>
-      <c r="F84" s="3">
-        <v>6269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43974</v>
       </c>
@@ -3854,76 +3417,31 @@
       <c r="E85">
         <v>6254</v>
       </c>
-      <c r="F85" s="3">
-        <v>6282</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43975</v>
       </c>
       <c r="E86">
         <v>6262</v>
       </c>
-      <c r="F86" s="3">
-        <v>6291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f>A86+1</f>
         <v>43976</v>
       </c>
-      <c r="F87" s="3">
-        <v>6295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f>A87+1</f>
         <v>43977</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f>A88+1</f>
         <v>43978</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <f t="shared" ref="A90:A95" si="0">A89+1</f>
-        <v>43979</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
-        <f t="shared" si="0"/>
-        <v>43980</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1">
-        <f t="shared" si="0"/>
-        <v>43981</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1">
-        <f t="shared" si="0"/>
-        <v>43982</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
-        <f t="shared" si="0"/>
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1">
-        <f t="shared" si="0"/>
-        <v>43984</v>
       </c>
     </row>
   </sheetData>
@@ -3933,15 +3451,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D54C2C-8FDC-6C42-8746-0BAFEFD59EF0}">
-  <dimension ref="A1:F400"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>Totals!A1</f>
         <v>Date</v>
@@ -3962,12 +3480,8 @@
         <f>Totals!E1</f>
         <v>43976</v>
       </c>
-      <c r="F1" s="1">
-        <f>Totals!F1</f>
-        <v>43977</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>Totals!A2</f>
         <v>43891</v>
@@ -3984,11 +3498,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>Totals!A3</f>
         <v>43892</v>
@@ -4009,12 +3520,8 @@
         <f>Totals!E3-Totals!E2</f>
         <v>0</v>
       </c>
-      <c r="F3">
-        <f>Totals!F3-Totals!F2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>Totals!A4</f>
         <v>43893</v>
@@ -4035,12 +3542,8 @@
         <f>Totals!E4-Totals!E3</f>
         <v>0</v>
       </c>
-      <c r="F4">
-        <f>Totals!F4-Totals!F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>Totals!A5</f>
         <v>43894</v>
@@ -4061,12 +3564,8 @@
         <f>Totals!E5-Totals!E4</f>
         <v>0</v>
       </c>
-      <c r="F5">
-        <f>Totals!F5-Totals!F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>Totals!A6</f>
         <v>43895</v>
@@ -4087,12 +3586,8 @@
         <f>Totals!E6-Totals!E5</f>
         <v>1</v>
       </c>
-      <c r="F6">
-        <f>Totals!F6-Totals!F5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>Totals!A7</f>
         <v>43896</v>
@@ -4113,12 +3608,8 @@
         <f>Totals!E7-Totals!E6</f>
         <v>0</v>
       </c>
-      <c r="F7">
-        <f>Totals!F7-Totals!F6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>Totals!A8</f>
         <v>43897</v>
@@ -4139,12 +3630,8 @@
         <f>Totals!E8-Totals!E7</f>
         <v>0</v>
       </c>
-      <c r="F8">
-        <f>Totals!F8-Totals!F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>Totals!A9</f>
         <v>43898</v>
@@ -4165,12 +3652,8 @@
         <f>Totals!E9-Totals!E8</f>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f>Totals!F9-Totals!F8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>Totals!A10</f>
         <v>43899</v>
@@ -4191,12 +3674,8 @@
         <f>Totals!E10-Totals!E9</f>
         <v>0</v>
       </c>
-      <c r="F10">
-        <f>Totals!F10-Totals!F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>Totals!A11</f>
         <v>43900</v>
@@ -4217,12 +3696,8 @@
         <f>Totals!E11-Totals!E10</f>
         <v>1</v>
       </c>
-      <c r="F11">
-        <f>Totals!F11-Totals!F10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>Totals!A12</f>
         <v>43901</v>
@@ -4243,12 +3718,8 @@
         <f>Totals!E12-Totals!E11</f>
         <v>3</v>
       </c>
-      <c r="F12">
-        <f>Totals!F12-Totals!F11</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>Totals!A13</f>
         <v>43902</v>
@@ -4269,12 +3740,8 @@
         <f>Totals!E13-Totals!E12</f>
         <v>2</v>
       </c>
-      <c r="F13">
-        <f>Totals!F13-Totals!F12</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>Totals!A14</f>
         <v>43903</v>
@@ -4295,12 +3762,8 @@
         <f>Totals!E14-Totals!E13</f>
         <v>3</v>
       </c>
-      <c r="F14">
-        <f>Totals!F14-Totals!F13</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>Totals!A15</f>
         <v>43904</v>
@@ -4321,12 +3784,8 @@
         <f>Totals!E15-Totals!E14</f>
         <v>2</v>
       </c>
-      <c r="F15">
-        <f>Totals!F15-Totals!F14</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>Totals!A16</f>
         <v>43905</v>
@@ -4347,12 +3806,8 @@
         <f>Totals!E16-Totals!E15</f>
         <v>4</v>
       </c>
-      <c r="F16">
-        <f>Totals!F16-Totals!F15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>Totals!A17</f>
         <v>43906</v>
@@ -4373,12 +3828,8 @@
         <f>Totals!E17-Totals!E16</f>
         <v>16</v>
       </c>
-      <c r="F17">
-        <f>Totals!F17-Totals!F16</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>Totals!A18</f>
         <v>43907</v>
@@ -4399,12 +3850,8 @@
         <f>Totals!E18-Totals!E17</f>
         <v>21</v>
       </c>
-      <c r="F18">
-        <f>Totals!F18-Totals!F17</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>Totals!A19</f>
         <v>43908</v>
@@ -4425,12 +3872,8 @@
         <f>Totals!E19-Totals!E18</f>
         <v>25</v>
       </c>
-      <c r="F19">
-        <f>Totals!F19-Totals!F18</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>Totals!A20</f>
         <v>43909</v>
@@ -4451,12 +3894,8 @@
         <f>Totals!E20-Totals!E19</f>
         <v>56</v>
       </c>
-      <c r="F20">
-        <f>Totals!F20-Totals!F19</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>Totals!A21</f>
         <v>43910</v>
@@ -4477,12 +3916,8 @@
         <f>Totals!E21-Totals!E20</f>
         <v>34</v>
       </c>
-      <c r="F21">
-        <f>Totals!F21-Totals!F20</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>Totals!A22</f>
         <v>43911</v>
@@ -4503,12 +3938,8 @@
         <f>Totals!E22-Totals!E21</f>
         <v>26</v>
       </c>
-      <c r="F22">
-        <f>Totals!F22-Totals!F21</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>Totals!A23</f>
         <v>43912</v>
@@ -4529,12 +3960,8 @@
         <f>Totals!E23-Totals!E22</f>
         <v>29</v>
       </c>
-      <c r="F23">
-        <f>Totals!F23-Totals!F22</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>Totals!A24</f>
         <v>43913</v>
@@ -4555,12 +3982,8 @@
         <f>Totals!E24-Totals!E23</f>
         <v>34</v>
       </c>
-      <c r="F24">
-        <f>Totals!F24-Totals!F23</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f>Totals!A25</f>
         <v>43914</v>
@@ -4581,12 +4004,8 @@
         <f>Totals!E25-Totals!E24</f>
         <v>45</v>
       </c>
-      <c r="F25">
-        <f>Totals!F25-Totals!F24</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>Totals!A26</f>
         <v>43915</v>
@@ -4607,12 +4026,8 @@
         <f>Totals!E26-Totals!E25</f>
         <v>55</v>
       </c>
-      <c r="F26">
-        <f>Totals!F26-Totals!F25</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>Totals!A27</f>
         <v>43916</v>
@@ -4633,12 +4048,8 @@
         <f>Totals!E27-Totals!E26</f>
         <v>66</v>
       </c>
-      <c r="F27">
-        <f>Totals!F27-Totals!F26</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f>Totals!A28</f>
         <v>43917</v>
@@ -4659,12 +4070,8 @@
         <f>Totals!E28-Totals!E27</f>
         <v>75</v>
       </c>
-      <c r="F28">
-        <f>Totals!F28-Totals!F27</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f>Totals!A29</f>
         <v>43918</v>
@@ -4685,12 +4092,8 @@
         <f>Totals!E29-Totals!E28</f>
         <v>50</v>
       </c>
-      <c r="F29">
-        <f>Totals!F29-Totals!F28</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f>Totals!A30</f>
         <v>43919</v>
@@ -4711,12 +4114,8 @@
         <f>Totals!E30-Totals!E29</f>
         <v>45</v>
       </c>
-      <c r="F30">
-        <f>Totals!F30-Totals!F29</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f>Totals!A31</f>
         <v>43920</v>
@@ -4737,12 +4136,8 @@
         <f>Totals!E31-Totals!E30</f>
         <v>100</v>
       </c>
-      <c r="F31">
-        <f>Totals!F31-Totals!F30</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f>Totals!A32</f>
         <v>43921</v>
@@ -4763,12 +4158,8 @@
         <f>Totals!E32-Totals!E31</f>
         <v>99</v>
       </c>
-      <c r="F32">
-        <f>Totals!F32-Totals!F31</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>Totals!A33</f>
         <v>43922</v>
@@ -4789,12 +4180,8 @@
         <f>Totals!E33-Totals!E32</f>
         <v>107</v>
       </c>
-      <c r="F33">
-        <f>Totals!F33-Totals!F32</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>Totals!A34</f>
         <v>43923</v>
@@ -4815,12 +4202,8 @@
         <f>Totals!E34-Totals!E33</f>
         <v>99</v>
       </c>
-      <c r="F34">
-        <f>Totals!F34-Totals!F33</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>Totals!A35</f>
         <v>43924</v>
@@ -4841,12 +4224,8 @@
         <f>Totals!E35-Totals!E34</f>
         <v>129</v>
       </c>
-      <c r="F35">
-        <f>Totals!F35-Totals!F34</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>Totals!A36</f>
         <v>43925</v>
@@ -4867,12 +4246,8 @@
         <f>Totals!E36-Totals!E35</f>
         <v>66</v>
       </c>
-      <c r="F36">
-        <f>Totals!F36-Totals!F35</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f>Totals!A37</f>
         <v>43926</v>
@@ -4893,12 +4268,8 @@
         <f>Totals!E37-Totals!E36</f>
         <v>59</v>
       </c>
-      <c r="F37">
-        <f>Totals!F37-Totals!F36</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f>Totals!A38</f>
         <v>43927</v>
@@ -4919,12 +4290,8 @@
         <f>Totals!E38-Totals!E37</f>
         <v>123</v>
       </c>
-      <c r="F38">
-        <f>Totals!F38-Totals!F37</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>Totals!A39</f>
         <v>43928</v>
@@ -4945,12 +4312,8 @@
         <f>Totals!E39-Totals!E38</f>
         <v>136</v>
       </c>
-      <c r="F39">
-        <f>Totals!F39-Totals!F38</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>Totals!A40</f>
         <v>43929</v>
@@ -4971,12 +4334,8 @@
         <f>Totals!E40-Totals!E39</f>
         <v>165</v>
       </c>
-      <c r="F40">
-        <f>Totals!F40-Totals!F39</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f>Totals!A41</f>
         <v>43930</v>
@@ -4997,12 +4356,8 @@
         <f>Totals!E41-Totals!E40</f>
         <v>107</v>
       </c>
-      <c r="F41">
-        <f>Totals!F41-Totals!F40</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f>Totals!A42</f>
         <v>43931</v>
@@ -5023,12 +4378,8 @@
         <f>Totals!E42-Totals!E41</f>
         <v>128</v>
       </c>
-      <c r="F42">
-        <f>Totals!F42-Totals!F41</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>Totals!A43</f>
         <v>43932</v>
@@ -5049,12 +4400,8 @@
         <f>Totals!E43-Totals!E42</f>
         <v>76</v>
       </c>
-      <c r="F43">
-        <f>Totals!F43-Totals!F42</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>Totals!A44</f>
         <v>43933</v>
@@ -5075,12 +4422,8 @@
         <f>Totals!E44-Totals!E43</f>
         <v>46</v>
       </c>
-      <c r="F44">
-        <f>Totals!F44-Totals!F43</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f>Totals!A45</f>
         <v>43934</v>
@@ -5101,12 +4444,8 @@
         <f>Totals!E45-Totals!E44</f>
         <v>123</v>
       </c>
-      <c r="F45">
-        <f>Totals!F45-Totals!F44</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f>Totals!A46</f>
         <v>43935</v>
@@ -5127,12 +4466,8 @@
         <f>Totals!E46-Totals!E45</f>
         <v>189</v>
       </c>
-      <c r="F46">
-        <f>Totals!F46-Totals!F45</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f>Totals!A47</f>
         <v>43936</v>
@@ -5153,12 +4488,8 @@
         <f>Totals!E47-Totals!E46</f>
         <v>195</v>
       </c>
-      <c r="F47">
-        <f>Totals!F47-Totals!F46</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f>Totals!A48</f>
         <v>43937</v>
@@ -5179,12 +4510,8 @@
         <f>Totals!E48-Totals!E47</f>
         <v>199</v>
       </c>
-      <c r="F48">
-        <f>Totals!F48-Totals!F47</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f>Totals!A49</f>
         <v>43938</v>
@@ -5205,12 +4532,8 @@
         <f>Totals!E49-Totals!E48</f>
         <v>137</v>
       </c>
-      <c r="F49">
-        <f>Totals!F49-Totals!F48</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>Totals!A50</f>
         <v>43939</v>
@@ -5231,12 +4554,8 @@
         <f>Totals!E50-Totals!E49</f>
         <v>92</v>
       </c>
-      <c r="F50">
-        <f>Totals!F50-Totals!F49</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>Totals!A51</f>
         <v>43940</v>
@@ -5257,12 +4576,8 @@
         <f>Totals!E51-Totals!E50</f>
         <v>55</v>
       </c>
-      <c r="F51">
-        <f>Totals!F51-Totals!F50</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>Totals!A52</f>
         <v>43941</v>
@@ -5283,12 +4598,8 @@
         <f>Totals!E52-Totals!E51</f>
         <v>185</v>
       </c>
-      <c r="F52">
-        <f>Totals!F52-Totals!F51</f>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>Totals!A53</f>
         <v>43942</v>
@@ -5309,12 +4620,8 @@
         <f>Totals!E53-Totals!E52</f>
         <v>146</v>
       </c>
-      <c r="F53">
-        <f>Totals!F53-Totals!F52</f>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f>Totals!A54</f>
         <v>43943</v>
@@ -5335,12 +4642,8 @@
         <f>Totals!E54-Totals!E53</f>
         <v>172</v>
       </c>
-      <c r="F54">
-        <f>Totals!F54-Totals!F53</f>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f>Totals!A55</f>
         <v>43944</v>
@@ -5361,12 +4664,8 @@
         <f>Totals!E55-Totals!E54</f>
         <v>197</v>
       </c>
-      <c r="F55">
-        <f>Totals!F55-Totals!F54</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f>Totals!A56</f>
         <v>43945</v>
@@ -5387,12 +4686,8 @@
         <f>Totals!E56-Totals!E55</f>
         <v>194</v>
       </c>
-      <c r="F56">
-        <f>Totals!F56-Totals!F55</f>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f>Totals!A57</f>
         <v>43946</v>
@@ -5413,12 +4708,8 @@
         <f>Totals!E57-Totals!E56</f>
         <v>63</v>
       </c>
-      <c r="F57">
-        <f>Totals!F57-Totals!F56</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f>Totals!A58</f>
         <v>43947</v>
@@ -5439,12 +4730,8 @@
         <f>Totals!E58-Totals!E57</f>
         <v>47</v>
       </c>
-      <c r="F58">
-        <f>Totals!F58-Totals!F57</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f>Totals!A59</f>
         <v>43948</v>
@@ -5465,12 +4752,8 @@
         <f>Totals!E59-Totals!E58</f>
         <v>167</v>
       </c>
-      <c r="F59">
-        <f>Totals!F59-Totals!F58</f>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f>Totals!A60</f>
         <v>43949</v>
@@ -5491,12 +4774,8 @@
         <f>Totals!E60-Totals!E59</f>
         <v>166</v>
       </c>
-      <c r="F60">
-        <f>Totals!F60-Totals!F59</f>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f>Totals!A61</f>
         <v>43950</v>
@@ -5517,12 +4796,8 @@
         <f>Totals!E61-Totals!E60</f>
         <v>132</v>
       </c>
-      <c r="F61">
-        <f>Totals!F61-Totals!F60</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f>Totals!A62</f>
         <v>43951</v>
@@ -5543,12 +4818,8 @@
         <f>Totals!E62-Totals!E61</f>
         <v>103</v>
       </c>
-      <c r="F62">
-        <f>Totals!F62-Totals!F61</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f>Totals!A63</f>
         <v>43952</v>
@@ -5569,12 +4840,8 @@
         <f>Totals!E63-Totals!E62</f>
         <v>145</v>
       </c>
-      <c r="F63">
-        <f>Totals!F63-Totals!F62</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f>Totals!A64</f>
         <v>43953</v>
@@ -5595,12 +4862,8 @@
         <f>Totals!E64-Totals!E63</f>
         <v>65</v>
       </c>
-      <c r="F64">
-        <f>Totals!F64-Totals!F63</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f>Totals!A65</f>
         <v>43954</v>
@@ -5621,12 +4884,8 @@
         <f>Totals!E65-Totals!E64</f>
         <v>56</v>
       </c>
-      <c r="F65">
-        <f>Totals!F65-Totals!F64</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f>Totals!A66</f>
         <v>43955</v>
@@ -5647,12 +4906,8 @@
         <f>Totals!E66-Totals!E65</f>
         <v>139</v>
       </c>
-      <c r="F66">
-        <f>Totals!F66-Totals!F65</f>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f>Totals!A67</f>
         <v>43956</v>
@@ -5673,12 +4928,8 @@
         <f>Totals!E67-Totals!E66</f>
         <v>111</v>
       </c>
-      <c r="F67">
-        <f>Totals!F67-Totals!F66</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f>Totals!A68</f>
         <v>43957</v>
@@ -5699,12 +4950,8 @@
         <f>Totals!E68-Totals!E67</f>
         <v>110</v>
       </c>
-      <c r="F68">
-        <f>Totals!F68-Totals!F67</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f>Totals!A69</f>
         <v>43958</v>
@@ -5725,12 +4972,8 @@
         <f>Totals!E69-Totals!E68</f>
         <v>92</v>
       </c>
-      <c r="F69">
-        <f>Totals!F69-Totals!F68</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f>Totals!A70</f>
         <v>43959</v>
@@ -5751,12 +4994,8 @@
         <f>Totals!E70-Totals!E69</f>
         <v>63</v>
       </c>
-      <c r="F70">
-        <f>Totals!F70-Totals!F69</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <f>Totals!A71</f>
         <v>43960</v>
@@ -5777,12 +5016,8 @@
         <f>Totals!E71-Totals!E70</f>
         <v>37</v>
       </c>
-      <c r="F71">
-        <f>Totals!F71-Totals!F70</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f>Totals!A72</f>
         <v>43961</v>
@@ -5803,12 +5038,8 @@
         <f>Totals!E72-Totals!E71</f>
         <v>25</v>
       </c>
-      <c r="F72">
-        <f>Totals!F72-Totals!F71</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f>Totals!A73</f>
         <v>43962</v>
@@ -5829,12 +5060,8 @@
         <f>Totals!E73-Totals!E72</f>
         <v>79</v>
       </c>
-      <c r="F73">
-        <f>Totals!F73-Totals!F72</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <f>Totals!A74</f>
         <v>43963</v>
@@ -5855,12 +5082,8 @@
         <f>Totals!E74-Totals!E73</f>
         <v>103</v>
       </c>
-      <c r="F74">
-        <f>Totals!F74-Totals!F73</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f>Totals!A75</f>
         <v>43964</v>
@@ -5881,12 +5104,8 @@
         <f>Totals!E75-Totals!E74</f>
         <v>84</v>
       </c>
-      <c r="F75">
-        <f>Totals!F75-Totals!F74</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f>Totals!A76</f>
         <v>43965</v>
@@ -5907,12 +5126,8 @@
         <f>Totals!E76-Totals!E75</f>
         <v>106</v>
       </c>
-      <c r="F76">
-        <f>Totals!F76-Totals!F75</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <f>Totals!A77</f>
         <v>43966</v>
@@ -5933,12 +5148,8 @@
         <f>Totals!E77-Totals!E76</f>
         <v>102</v>
       </c>
-      <c r="F77">
-        <f>Totals!F77-Totals!F76</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f>Totals!A78</f>
         <v>43967</v>
@@ -5959,12 +5170,8 @@
         <f>Totals!E78-Totals!E77</f>
         <v>24</v>
       </c>
-      <c r="F78">
-        <f>Totals!F78-Totals!F77</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <f>Totals!A79</f>
         <v>43968</v>
@@ -5985,12 +5192,8 @@
         <f>Totals!E79-Totals!E78</f>
         <v>25</v>
       </c>
-      <c r="F79">
-        <f>Totals!F79-Totals!F78</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <f>Totals!A80</f>
         <v>43969</v>
@@ -6011,12 +5214,8 @@
         <f>Totals!E80-Totals!E79</f>
         <v>87</v>
       </c>
-      <c r="F80">
-        <f>Totals!F80-Totals!F79</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <f>Totals!A81</f>
         <v>43970</v>
@@ -6037,12 +5236,8 @@
         <f>Totals!E81-Totals!E80</f>
         <v>83</v>
       </c>
-      <c r="F81">
-        <f>Totals!F81-Totals!F80</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <f>Totals!A82</f>
         <v>43971</v>
@@ -6063,12 +5258,8 @@
         <f>Totals!E82-Totals!E81</f>
         <v>59</v>
       </c>
-      <c r="F82">
-        <f>Totals!F82-Totals!F81</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <f>Totals!A83</f>
         <v>43972</v>
@@ -6089,12 +5280,8 @@
         <f>Totals!E83-Totals!E82</f>
         <v>37</v>
       </c>
-      <c r="F83">
-        <f>Totals!F83-Totals!F82</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <f>Totals!A84</f>
         <v>43973</v>
@@ -6111,12 +5298,8 @@
         <f>Totals!E84-Totals!E83</f>
         <v>19</v>
       </c>
-      <c r="F84">
-        <f>Totals!F84-Totals!F83</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <f>Totals!A85</f>
         <v>43974</v>
@@ -6129,12 +5312,8 @@
         <f>Totals!E85-Totals!E84</f>
         <v>8</v>
       </c>
-      <c r="F85">
-        <f>Totals!F85-Totals!F84</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <f>Totals!A86</f>
         <v>43975</v>
@@ -6143,1894 +5322,1886 @@
         <f>Totals!E86-Totals!E85</f>
         <v>8</v>
       </c>
-      <c r="F86">
-        <f>Totals!F86-Totals!F85</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f>Totals!A87</f>
         <v>43976</v>
       </c>
-      <c r="F87">
-        <f>Totals!F87-Totals!F86</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f>Totals!A88</f>
         <v>43977</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f>Totals!A89</f>
         <v>43978</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <f>Totals!A90</f>
-        <v>43979</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <f>Totals!A91</f>
-        <v>43980</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <f>Totals!A92</f>
-        <v>43981</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <f>Totals!A93</f>
-        <v>43982</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <f>Totals!A94</f>
-        <v>43983</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <f>Totals!A95</f>
-        <v>43984</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <f>Totals!A96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <f>Totals!A97</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <f>Totals!A98</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <f>Totals!A99</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <f>Totals!A100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <f>Totals!A101</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <f>Totals!A102</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <f>Totals!A103</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <f>Totals!A104</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <f>Totals!A105</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <f>Totals!A106</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <f>Totals!A107</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <f>Totals!A108</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <f>Totals!A109</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <f>Totals!A110</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <f>Totals!A111</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <f>Totals!A112</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <f>Totals!A113</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <f>Totals!A114</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <f>Totals!A115</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <f>Totals!A116</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <f>Totals!A117</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <f>Totals!A118</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <f>Totals!A119</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <f>Totals!A120</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <f>Totals!A121</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <f>Totals!A122</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <f>Totals!A123</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <f>Totals!A124</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <f>Totals!A125</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <f>Totals!A126</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <f>Totals!A127</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <f>Totals!A128</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <f>Totals!A129</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <f>Totals!A130</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <f>Totals!A131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <f>Totals!A132</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <f>Totals!A133</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <f>Totals!A134</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <f>Totals!A135</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <f>Totals!A136</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <f>Totals!A137</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <f>Totals!A138</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <f>Totals!A139</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <f>Totals!A140</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <f>Totals!A141</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <f>Totals!A142</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <f>Totals!A143</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <f>Totals!A144</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <f>Totals!A145</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <f>Totals!A146</f>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <f>Totals!A147</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <f>Totals!A148</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <f>Totals!A149</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <f>Totals!A150</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <f>Totals!A151</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <f>Totals!A152</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <f>Totals!A153</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <f>Totals!A154</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <f>Totals!A155</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <f>Totals!A156</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <f>Totals!A157</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <f>Totals!A158</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <f>Totals!A159</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <f>Totals!A160</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <f>Totals!A161</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <f>Totals!A162</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <f>Totals!A163</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <f>Totals!A164</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <f>Totals!A165</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <f>Totals!A166</f>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <f>Totals!A167</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <f>Totals!A168</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <f>Totals!A169</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <f>Totals!A170</f>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <f>Totals!A171</f>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <f>Totals!A172</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <f>Totals!A173</f>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <f>Totals!A174</f>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <f>Totals!A175</f>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <f>Totals!A176</f>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <f>Totals!A177</f>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <f>Totals!A178</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <f>Totals!A179</f>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <f>Totals!A180</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <f>Totals!A181</f>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <f>Totals!A182</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <f>Totals!A183</f>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <f>Totals!A184</f>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <f>Totals!A185</f>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <f>Totals!A186</f>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <f>Totals!A187</f>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <f>Totals!A188</f>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <f>Totals!A189</f>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <f>Totals!A190</f>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <f>Totals!A191</f>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <f>Totals!A192</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <f>Totals!A193</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <f>Totals!A194</f>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <f>Totals!A195</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <f>Totals!A196</f>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <f>Totals!A197</f>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <f>Totals!A198</f>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <f>Totals!A199</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <f>Totals!A200</f>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <f>Totals!A201</f>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <f>Totals!A202</f>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <f>Totals!A203</f>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <f>Totals!A204</f>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <f>Totals!A205</f>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <f>Totals!A206</f>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <f>Totals!A207</f>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <f>Totals!A208</f>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <f>Totals!A209</f>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <f>Totals!A210</f>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <f>Totals!A211</f>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <f>Totals!A212</f>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <f>Totals!A213</f>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <f>Totals!A214</f>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <f>Totals!A215</f>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <f>Totals!A216</f>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <f>Totals!A217</f>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <f>Totals!A218</f>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <f>Totals!A219</f>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <f>Totals!A220</f>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <f>Totals!A221</f>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <f>Totals!A222</f>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <f>Totals!A223</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <f>Totals!A224</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <f>Totals!A225</f>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <f>Totals!A226</f>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <f>Totals!A227</f>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <f>Totals!A228</f>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <f>Totals!A229</f>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <f>Totals!A230</f>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <f>Totals!A231</f>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <f>Totals!A232</f>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <f>Totals!A233</f>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <f>Totals!A234</f>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <f>Totals!A235</f>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <f>Totals!A236</f>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <f>Totals!A237</f>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <f>Totals!A238</f>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <f>Totals!A239</f>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <f>Totals!A240</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <f>Totals!A241</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <f>Totals!A242</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <f>Totals!A243</f>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <f>Totals!A244</f>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <f>Totals!A245</f>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <f>Totals!A246</f>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <f>Totals!A247</f>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <f>Totals!A248</f>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <f>Totals!A249</f>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <f>Totals!A250</f>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <f>Totals!A251</f>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <f>Totals!A252</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <f>Totals!A253</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <f>Totals!A254</f>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <f>Totals!A255</f>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <f>Totals!A256</f>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <f>Totals!A257</f>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <f>Totals!A258</f>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <f>Totals!A259</f>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <f>Totals!A260</f>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <f>Totals!A261</f>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <f>Totals!A262</f>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <f>Totals!A263</f>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <f>Totals!A264</f>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <f>Totals!A265</f>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <f>Totals!A266</f>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <f>Totals!A267</f>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <f>Totals!A268</f>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <f>Totals!A269</f>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <f>Totals!A270</f>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <f>Totals!A271</f>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <f>Totals!A272</f>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <f>Totals!A273</f>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <f>Totals!A274</f>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <f>Totals!A275</f>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <f>Totals!A276</f>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <f>Totals!A277</f>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <f>Totals!A278</f>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <f>Totals!A279</f>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <f>Totals!A280</f>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <f>Totals!A281</f>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <f>Totals!A282</f>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <f>Totals!A283</f>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <f>Totals!A284</f>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <f>Totals!A285</f>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <f>Totals!A286</f>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <f>Totals!A287</f>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <f>Totals!A288</f>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <f>Totals!A289</f>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <f>Totals!A290</f>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <f>Totals!A291</f>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <f>Totals!A292</f>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <f>Totals!A293</f>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <f>Totals!A294</f>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <f>Totals!A295</f>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <f>Totals!A296</f>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <f>Totals!A297</f>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <f>Totals!A298</f>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <f>Totals!A299</f>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <f>Totals!A300</f>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <f>Totals!A301</f>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <f>Totals!A302</f>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <f>Totals!A303</f>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <f>Totals!A304</f>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <f>Totals!A305</f>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <f>Totals!A306</f>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <f>Totals!A307</f>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <f>Totals!A308</f>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <f>Totals!A309</f>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <f>Totals!A310</f>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <f>Totals!A311</f>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <f>Totals!A312</f>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <f>Totals!A313</f>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <f>Totals!A314</f>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <f>Totals!A315</f>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <f>Totals!A316</f>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <f>Totals!A317</f>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <f>Totals!A318</f>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <f>Totals!A319</f>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <f>Totals!A320</f>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <f>Totals!A321</f>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <f>Totals!A322</f>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <f>Totals!A323</f>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <f>Totals!A324</f>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <f>Totals!A325</f>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <f>Totals!A326</f>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <f>Totals!A327</f>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <f>Totals!A328</f>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <f>Totals!A329</f>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <f>Totals!A330</f>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <f>Totals!A331</f>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <f>Totals!A332</f>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <f>Totals!A333</f>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <f>Totals!A334</f>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <f>Totals!A335</f>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <f>Totals!A336</f>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <f>Totals!A337</f>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <f>Totals!A338</f>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <f>Totals!A339</f>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <f>Totals!A340</f>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <f>Totals!A341</f>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <f>Totals!A342</f>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <f>Totals!A343</f>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <f>Totals!A344</f>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <f>Totals!A345</f>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <f>Totals!A346</f>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <f>Totals!A347</f>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <f>Totals!A348</f>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <f>Totals!A349</f>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <f>Totals!A350</f>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <f>Totals!A351</f>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <f>Totals!A352</f>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <f>Totals!A353</f>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <f>Totals!A354</f>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <f>Totals!A355</f>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <f>Totals!A356</f>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <f>Totals!A357</f>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <f>Totals!A358</f>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <f>Totals!A359</f>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <f>Totals!A360</f>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <f>Totals!A361</f>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <f>Totals!A362</f>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <f>Totals!A363</f>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <f>Totals!A364</f>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <f>Totals!A365</f>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <f>Totals!A366</f>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <f>Totals!A367</f>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <f>Totals!A368</f>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <f>Totals!A369</f>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <f>Totals!A370</f>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <f>Totals!A371</f>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <f>Totals!A372</f>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <f>Totals!A373</f>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <f>Totals!A374</f>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <f>Totals!A375</f>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <f>Totals!A376</f>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <f>Totals!A377</f>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <f>Totals!A378</f>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <f>Totals!A379</f>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <f>Totals!A380</f>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <f>Totals!A381</f>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <f>Totals!A382</f>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <f>Totals!A383</f>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <f>Totals!A384</f>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <f>Totals!A385</f>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <f>Totals!A386</f>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <f>Totals!A387</f>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <f>Totals!A388</f>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <f>Totals!A389</f>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <f>Totals!A390</f>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <f>Totals!A391</f>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <f>Totals!A392</f>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <f>Totals!A393</f>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <f>Totals!A394</f>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <f>Totals!A395</f>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <f>Totals!A396</f>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <f>Totals!A397</f>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <f>Totals!A398</f>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <f>Totals!A399</f>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <f>Totals!A400</f>
         <v>0</v>

--- a/chesco/joint.xlsx
+++ b/chesco/joint.xlsx
@@ -8,15 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Music/Dropbox/covid/chesco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A3FA1-94E4-4A4A-A072-0CD715891C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FFEC85-7A38-0C44-8C83-EC4357013B0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" activeTab="1" xr2:uid="{A9DD6730-0F2E-5343-B468-2630B13945F8}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="27700" windowHeight="17540" activeTab="2" xr2:uid="{A9DD6730-0F2E-5343-B468-2630B13945F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
     <sheet name="Dailies" sheetId="3" r:id="rId2"/>
     <sheet name="Chart1" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Dailies!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Dailies!$B$72:$B$106</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Totals!$E$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Totals!$F$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Totals!$G$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Dailies!$C$72:$C$86</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Dailies!$D$72:$D$86</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Dailies!$E$72:$E$86</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Dailies!$F$72:$F$106</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Dailies!$G$72:$G$106</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Totals!$A$72:$A$106</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Totals!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Totals!$D$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -190,7 +205,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="10"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -205,10 +220,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Totals!$A$72:$A$86</c:f>
+              <c:f>Totals!$A$72:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43961</c:v>
                 </c:pt>
@@ -253,16 +268,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dailies!$B$72:$B$86</c:f>
+              <c:f>Dailies!$B$72:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -334,7 +358,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="10"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -349,10 +373,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Totals!$A$72:$A$86</c:f>
+              <c:f>Totals!$A$72:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43961</c:v>
                 </c:pt>
@@ -397,6 +421,15 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,7 +515,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="10"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -497,10 +530,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Totals!$A$72:$A$86</c:f>
+              <c:f>Totals!$A$72:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43961</c:v>
                 </c:pt>
@@ -545,6 +578,15 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,7 +674,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="10"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -647,10 +689,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Totals!$A$72:$A$86</c:f>
+              <c:f>Totals!$A$72:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43961</c:v>
                 </c:pt>
@@ -695,6 +737,15 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,6 +808,345 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9D3C-5447-82F7-3FF5441FC0CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totals!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27-May-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Totals!$A$72:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dailies!$F$72:$F$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BFF-7948-A520-37952A83B39F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totals!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28-May-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Totals!$A$72:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dailies!$G$72:$G$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-851C-5241-89A6-6DA1367D6B3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1637,7 +2027,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7269E6AC-9DD6-FF49-90C7-6D64F2776714}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1974,15 +2364,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829C246F-97E5-7041-96F6-5431D0C3A3E3}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1998,8 +2388,14 @@
       <c r="E1" s="1">
         <v>43976</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1">
+        <v>43978</v>
+      </c>
+      <c r="G1" s="1">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43891</v>
       </c>
@@ -2015,8 +2411,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43892</v>
       </c>
@@ -2032,8 +2434,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43893</v>
       </c>
@@ -2049,8 +2457,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43894</v>
       </c>
@@ -2066,8 +2480,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43895</v>
       </c>
@@ -2083,8 +2503,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43896</v>
       </c>
@@ -2100,8 +2526,14 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43897</v>
       </c>
@@ -2117,8 +2549,14 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43898</v>
       </c>
@@ -2134,8 +2572,14 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43899</v>
       </c>
@@ -2151,8 +2595,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43900</v>
       </c>
@@ -2168,8 +2618,14 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43901</v>
       </c>
@@ -2185,8 +2641,14 @@
       <c r="E12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43902</v>
       </c>
@@ -2202,8 +2664,14 @@
       <c r="E13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -2219,8 +2687,14 @@
       <c r="E14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43904</v>
       </c>
@@ -2236,8 +2710,14 @@
       <c r="E15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43905</v>
       </c>
@@ -2253,8 +2733,14 @@
       <c r="E16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43906</v>
       </c>
@@ -2270,8 +2756,14 @@
       <c r="E17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43907</v>
       </c>
@@ -2287,8 +2779,14 @@
       <c r="E18">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>53</v>
+      </c>
+      <c r="G18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43908</v>
       </c>
@@ -2304,8 +2802,14 @@
       <c r="E19">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>78</v>
+      </c>
+      <c r="G19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43909</v>
       </c>
@@ -2321,8 +2825,14 @@
       <c r="E20">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>134</v>
+      </c>
+      <c r="G20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43910</v>
       </c>
@@ -2338,8 +2848,14 @@
       <c r="E21">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>168</v>
+      </c>
+      <c r="G21">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43911</v>
       </c>
@@ -2355,8 +2871,14 @@
       <c r="E22">
         <v>194</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>194</v>
+      </c>
+      <c r="G22">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43912</v>
       </c>
@@ -2372,8 +2894,14 @@
       <c r="E23">
         <v>223</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>223</v>
+      </c>
+      <c r="G23">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43913</v>
       </c>
@@ -2389,8 +2917,14 @@
       <c r="E24">
         <v>257</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>257</v>
+      </c>
+      <c r="G24">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43914</v>
       </c>
@@ -2406,8 +2940,14 @@
       <c r="E25">
         <v>302</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>302</v>
+      </c>
+      <c r="G25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43915</v>
       </c>
@@ -2423,8 +2963,14 @@
       <c r="E26">
         <v>357</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>357</v>
+      </c>
+      <c r="G26">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43916</v>
       </c>
@@ -2440,8 +2986,14 @@
       <c r="E27">
         <v>423</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>423</v>
+      </c>
+      <c r="G27">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43917</v>
       </c>
@@ -2457,8 +3009,14 @@
       <c r="E28">
         <v>498</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>498</v>
+      </c>
+      <c r="G28">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43918</v>
       </c>
@@ -2474,8 +3032,14 @@
       <c r="E29">
         <v>548</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>548</v>
+      </c>
+      <c r="G29">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43919</v>
       </c>
@@ -2491,8 +3055,14 @@
       <c r="E30">
         <v>593</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>593</v>
+      </c>
+      <c r="G30">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43920</v>
       </c>
@@ -2508,8 +3078,14 @@
       <c r="E31">
         <v>693</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>693</v>
+      </c>
+      <c r="G31">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43921</v>
       </c>
@@ -2525,8 +3101,14 @@
       <c r="E32">
         <v>792</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>792</v>
+      </c>
+      <c r="G32">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43922</v>
       </c>
@@ -2542,8 +3124,14 @@
       <c r="E33">
         <v>899</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>899</v>
+      </c>
+      <c r="G33">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43923</v>
       </c>
@@ -2559,8 +3147,14 @@
       <c r="E34">
         <v>998</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>998</v>
+      </c>
+      <c r="G34">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43924</v>
       </c>
@@ -2576,8 +3170,14 @@
       <c r="E35">
         <v>1127</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>1127</v>
+      </c>
+      <c r="G35">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43925</v>
       </c>
@@ -2593,8 +3193,14 @@
       <c r="E36">
         <v>1193</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>1193</v>
+      </c>
+      <c r="G36">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43926</v>
       </c>
@@ -2610,8 +3216,14 @@
       <c r="E37">
         <v>1252</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>1252</v>
+      </c>
+      <c r="G37">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43927</v>
       </c>
@@ -2627,8 +3239,14 @@
       <c r="E38">
         <v>1375</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>1375</v>
+      </c>
+      <c r="G38">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43928</v>
       </c>
@@ -2644,8 +3262,14 @@
       <c r="E39">
         <v>1511</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>1511</v>
+      </c>
+      <c r="G39">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43929</v>
       </c>
@@ -2661,8 +3285,14 @@
       <c r="E40">
         <v>1676</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>1676</v>
+      </c>
+      <c r="G40">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43930</v>
       </c>
@@ -2678,8 +3308,14 @@
       <c r="E41">
         <v>1783</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>1783</v>
+      </c>
+      <c r="G41">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43931</v>
       </c>
@@ -2695,8 +3331,14 @@
       <c r="E42">
         <v>1911</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>1911</v>
+      </c>
+      <c r="G42">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43932</v>
       </c>
@@ -2712,8 +3354,14 @@
       <c r="E43">
         <v>1987</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>1987</v>
+      </c>
+      <c r="G43">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43933</v>
       </c>
@@ -2729,8 +3377,14 @@
       <c r="E44">
         <v>2033</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>2033</v>
+      </c>
+      <c r="G44">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43934</v>
       </c>
@@ -2746,8 +3400,14 @@
       <c r="E45">
         <v>2156</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>2156</v>
+      </c>
+      <c r="G45">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43935</v>
       </c>
@@ -2763,8 +3423,14 @@
       <c r="E46">
         <v>2345</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>2345</v>
+      </c>
+      <c r="G46">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43936</v>
       </c>
@@ -2780,8 +3446,14 @@
       <c r="E47">
         <v>2540</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>2540</v>
+      </c>
+      <c r="G47">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43937</v>
       </c>
@@ -2797,8 +3469,14 @@
       <c r="E48">
         <v>2739</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>2740</v>
+      </c>
+      <c r="G48">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43938</v>
       </c>
@@ -2814,8 +3492,14 @@
       <c r="E49">
         <v>2876</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>2876</v>
+      </c>
+      <c r="G49">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43939</v>
       </c>
@@ -2831,8 +3515,14 @@
       <c r="E50">
         <v>2968</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>2968</v>
+      </c>
+      <c r="G50">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43940</v>
       </c>
@@ -2848,8 +3538,14 @@
       <c r="E51">
         <v>3023</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>3024</v>
+      </c>
+      <c r="G51">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43941</v>
       </c>
@@ -2865,8 +3561,14 @@
       <c r="E52">
         <v>3208</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>3209</v>
+      </c>
+      <c r="G52">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43942</v>
       </c>
@@ -2882,8 +3584,14 @@
       <c r="E53">
         <v>3354</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>3355</v>
+      </c>
+      <c r="G53">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43943</v>
       </c>
@@ -2899,8 +3607,14 @@
       <c r="E54">
         <v>3526</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>3527</v>
+      </c>
+      <c r="G54">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43944</v>
       </c>
@@ -2916,8 +3630,14 @@
       <c r="E55">
         <v>3723</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>3724</v>
+      </c>
+      <c r="G55">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43945</v>
       </c>
@@ -2933,8 +3653,14 @@
       <c r="E56">
         <v>3917</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>3919</v>
+      </c>
+      <c r="G56">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43946</v>
       </c>
@@ -2950,8 +3676,14 @@
       <c r="E57">
         <v>3980</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>3982</v>
+      </c>
+      <c r="G57">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43947</v>
       </c>
@@ -2967,8 +3699,14 @@
       <c r="E58">
         <v>4027</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>4029</v>
+      </c>
+      <c r="G58">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43948</v>
       </c>
@@ -2984,8 +3722,14 @@
       <c r="E59">
         <v>4194</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>4196</v>
+      </c>
+      <c r="G59">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43949</v>
       </c>
@@ -3001,8 +3745,14 @@
       <c r="E60">
         <v>4360</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>4362</v>
+      </c>
+      <c r="G60">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43950</v>
       </c>
@@ -3018,8 +3768,14 @@
       <c r="E61">
         <v>4492</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>4494</v>
+      </c>
+      <c r="G61">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43951</v>
       </c>
@@ -3035,8 +3791,14 @@
       <c r="E62">
         <v>4595</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>4602</v>
+      </c>
+      <c r="G62">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43952</v>
       </c>
@@ -3052,8 +3814,14 @@
       <c r="E63">
         <v>4740</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>4753</v>
+      </c>
+      <c r="G63">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43953</v>
       </c>
@@ -3069,8 +3837,14 @@
       <c r="E64">
         <v>4805</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>4818</v>
+      </c>
+      <c r="G64">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43954</v>
       </c>
@@ -3086,8 +3860,14 @@
       <c r="E65">
         <v>4861</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>4874</v>
+      </c>
+      <c r="G65">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43955</v>
       </c>
@@ -3103,8 +3883,14 @@
       <c r="E66">
         <v>5000</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>5013</v>
+      </c>
+      <c r="G66">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43956</v>
       </c>
@@ -3120,8 +3906,14 @@
       <c r="E67">
         <v>5111</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>5124</v>
+      </c>
+      <c r="G67">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43957</v>
       </c>
@@ -3137,8 +3929,14 @@
       <c r="E68">
         <v>5221</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>5233</v>
+      </c>
+      <c r="G68">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43958</v>
       </c>
@@ -3154,8 +3952,14 @@
       <c r="E69">
         <v>5313</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>5326</v>
+      </c>
+      <c r="G69">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43959</v>
       </c>
@@ -3171,8 +3975,14 @@
       <c r="E70">
         <v>5376</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>5389</v>
+      </c>
+      <c r="G70">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43960</v>
       </c>
@@ -3188,8 +3998,14 @@
       <c r="E71">
         <v>5413</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>5425</v>
+      </c>
+      <c r="G71">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43961</v>
       </c>
@@ -3205,8 +4021,14 @@
       <c r="E72">
         <v>5438</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>5450</v>
+      </c>
+      <c r="G72">
+        <v>5455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43962</v>
       </c>
@@ -3222,8 +4044,14 @@
       <c r="E73">
         <v>5517</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>5529</v>
+      </c>
+      <c r="G73">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43963</v>
       </c>
@@ -3239,8 +4067,14 @@
       <c r="E74">
         <v>5620</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>5633</v>
+      </c>
+      <c r="G74">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43964</v>
       </c>
@@ -3256,8 +4090,14 @@
       <c r="E75">
         <v>5704</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>5718</v>
+      </c>
+      <c r="G75">
+        <v>5722</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43965</v>
       </c>
@@ -3273,8 +4113,14 @@
       <c r="E76">
         <v>5810</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>5824</v>
+      </c>
+      <c r="G76">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43966</v>
       </c>
@@ -3290,8 +4136,14 @@
       <c r="E77">
         <v>5912</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>5927</v>
+      </c>
+      <c r="G77">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43967</v>
       </c>
@@ -3307,8 +4159,14 @@
       <c r="E78">
         <v>5936</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>5951</v>
+      </c>
+      <c r="G78">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43968</v>
       </c>
@@ -3324,8 +4182,14 @@
       <c r="E79">
         <v>5961</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>5976</v>
+      </c>
+      <c r="G79">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43969</v>
       </c>
@@ -3341,8 +4205,14 @@
       <c r="E80">
         <v>6048</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>6064</v>
+      </c>
+      <c r="G80">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43970</v>
       </c>
@@ -3358,8 +4228,14 @@
       <c r="E81">
         <v>6131</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>6151</v>
+      </c>
+      <c r="G81">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43971</v>
       </c>
@@ -3375,8 +4251,14 @@
       <c r="E82">
         <v>6190</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>6210</v>
+      </c>
+      <c r="G82">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43972</v>
       </c>
@@ -3392,8 +4274,14 @@
       <c r="E83">
         <v>6227</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>6258</v>
+      </c>
+      <c r="G83">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43973</v>
       </c>
@@ -3406,8 +4294,14 @@
       <c r="E84">
         <v>6246</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>6295</v>
+      </c>
+      <c r="G84">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43974</v>
       </c>
@@ -3417,31 +4311,58 @@
       <c r="E85">
         <v>6254</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>6314</v>
+      </c>
+      <c r="G85">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43975</v>
       </c>
       <c r="E86">
         <v>6262</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>6327</v>
+      </c>
+      <c r="G86">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f>A86+1</f>
         <v>43976</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>6335</v>
+      </c>
+      <c r="G87">
+        <v>6371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f>A87+1</f>
         <v>43977</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>6341</v>
+      </c>
+      <c r="G88">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f>A88+1</f>
         <v>43978</v>
+      </c>
+      <c r="G89">
+        <v>6389</v>
       </c>
     </row>
   </sheetData>
@@ -3451,15 +4372,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D54C2C-8FDC-6C42-8746-0BAFEFD59EF0}">
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:G400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>Totals!A1</f>
         <v>Date</v>
@@ -3480,8 +4401,16 @@
         <f>Totals!E1</f>
         <v>43976</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1">
+        <f>Totals!F1</f>
+        <v>43978</v>
+      </c>
+      <c r="G1" s="1">
+        <f>Totals!G1</f>
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>Totals!A2</f>
         <v>43891</v>
@@ -3498,8 +4427,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>Totals!A3</f>
         <v>43892</v>
@@ -3520,8 +4455,16 @@
         <f>Totals!E3-Totals!E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f>Totals!F3-Totals!F2</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>Totals!G3-Totals!G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>Totals!A4</f>
         <v>43893</v>
@@ -3542,8 +4485,16 @@
         <f>Totals!E4-Totals!E3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>Totals!F4-Totals!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>Totals!G4-Totals!G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>Totals!A5</f>
         <v>43894</v>
@@ -3564,8 +4515,16 @@
         <f>Totals!E5-Totals!E4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f>Totals!F5-Totals!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Totals!G5-Totals!G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>Totals!A6</f>
         <v>43895</v>
@@ -3586,8 +4545,16 @@
         <f>Totals!E6-Totals!E5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f>Totals!F6-Totals!F5</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>Totals!G6-Totals!G5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>Totals!A7</f>
         <v>43896</v>
@@ -3608,8 +4575,16 @@
         <f>Totals!E7-Totals!E6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f>Totals!F7-Totals!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>Totals!G7-Totals!G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>Totals!A8</f>
         <v>43897</v>
@@ -3630,8 +4605,16 @@
         <f>Totals!E8-Totals!E7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f>Totals!F8-Totals!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>Totals!G8-Totals!G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>Totals!A9</f>
         <v>43898</v>
@@ -3652,8 +4635,16 @@
         <f>Totals!E9-Totals!E8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f>Totals!F9-Totals!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>Totals!G9-Totals!G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>Totals!A10</f>
         <v>43899</v>
@@ -3674,8 +4665,16 @@
         <f>Totals!E10-Totals!E9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f>Totals!F10-Totals!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Totals!G10-Totals!G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>Totals!A11</f>
         <v>43900</v>
@@ -3696,8 +4695,16 @@
         <f>Totals!E11-Totals!E10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f>Totals!F11-Totals!F10</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>Totals!G11-Totals!G10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>Totals!A12</f>
         <v>43901</v>
@@ -3718,8 +4725,16 @@
         <f>Totals!E12-Totals!E11</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f>Totals!F12-Totals!F11</f>
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <f>Totals!G12-Totals!G11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>Totals!A13</f>
         <v>43902</v>
@@ -3740,8 +4755,16 @@
         <f>Totals!E13-Totals!E12</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f>Totals!F13-Totals!F12</f>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f>Totals!G13-Totals!G12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>Totals!A14</f>
         <v>43903</v>
@@ -3762,8 +4785,16 @@
         <f>Totals!E14-Totals!E13</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f>Totals!F14-Totals!F13</f>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f>Totals!G14-Totals!G13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>Totals!A15</f>
         <v>43904</v>
@@ -3784,8 +4815,16 @@
         <f>Totals!E15-Totals!E14</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f>Totals!F15-Totals!F14</f>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f>Totals!G15-Totals!G14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>Totals!A16</f>
         <v>43905</v>
@@ -3806,8 +4845,16 @@
         <f>Totals!E16-Totals!E15</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f>Totals!F16-Totals!F15</f>
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f>Totals!G16-Totals!G15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>Totals!A17</f>
         <v>43906</v>
@@ -3828,8 +4875,16 @@
         <f>Totals!E17-Totals!E16</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f>Totals!F17-Totals!F16</f>
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <f>Totals!G17-Totals!G16</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>Totals!A18</f>
         <v>43907</v>
@@ -3850,8 +4905,16 @@
         <f>Totals!E18-Totals!E17</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f>Totals!F18-Totals!F17</f>
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <f>Totals!G18-Totals!G17</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>Totals!A19</f>
         <v>43908</v>
@@ -3872,8 +4935,16 @@
         <f>Totals!E19-Totals!E18</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f>Totals!F19-Totals!F18</f>
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <f>Totals!G19-Totals!G18</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>Totals!A20</f>
         <v>43909</v>
@@ -3894,8 +4965,16 @@
         <f>Totals!E20-Totals!E19</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>Totals!F20-Totals!F19</f>
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <f>Totals!G20-Totals!G19</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>Totals!A21</f>
         <v>43910</v>
@@ -3916,8 +4995,16 @@
         <f>Totals!E21-Totals!E20</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>Totals!F21-Totals!F20</f>
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <f>Totals!G21-Totals!G20</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>Totals!A22</f>
         <v>43911</v>
@@ -3938,8 +5025,16 @@
         <f>Totals!E22-Totals!E21</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f>Totals!F22-Totals!F21</f>
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <f>Totals!G22-Totals!G21</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>Totals!A23</f>
         <v>43912</v>
@@ -3960,8 +5055,16 @@
         <f>Totals!E23-Totals!E22</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f>Totals!F23-Totals!F22</f>
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <f>Totals!G23-Totals!G22</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>Totals!A24</f>
         <v>43913</v>
@@ -3982,8 +5085,16 @@
         <f>Totals!E24-Totals!E23</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f>Totals!F24-Totals!F23</f>
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <f>Totals!G24-Totals!G23</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f>Totals!A25</f>
         <v>43914</v>
@@ -4004,8 +5115,16 @@
         <f>Totals!E25-Totals!E24</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f>Totals!F25-Totals!F24</f>
+        <v>45</v>
+      </c>
+      <c r="G25">
+        <f>Totals!G25-Totals!G24</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>Totals!A26</f>
         <v>43915</v>
@@ -4026,8 +5145,16 @@
         <f>Totals!E26-Totals!E25</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f>Totals!F26-Totals!F25</f>
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <f>Totals!G26-Totals!G25</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>Totals!A27</f>
         <v>43916</v>
@@ -4048,8 +5175,16 @@
         <f>Totals!E27-Totals!E26</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f>Totals!F27-Totals!F26</f>
+        <v>66</v>
+      </c>
+      <c r="G27">
+        <f>Totals!G27-Totals!G26</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f>Totals!A28</f>
         <v>43917</v>
@@ -4070,8 +5205,16 @@
         <f>Totals!E28-Totals!E27</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f>Totals!F28-Totals!F27</f>
+        <v>75</v>
+      </c>
+      <c r="G28">
+        <f>Totals!G28-Totals!G27</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f>Totals!A29</f>
         <v>43918</v>
@@ -4092,8 +5235,16 @@
         <f>Totals!E29-Totals!E28</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f>Totals!F29-Totals!F28</f>
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <f>Totals!G29-Totals!G28</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f>Totals!A30</f>
         <v>43919</v>
@@ -4114,8 +5265,16 @@
         <f>Totals!E30-Totals!E29</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f>Totals!F30-Totals!F29</f>
+        <v>45</v>
+      </c>
+      <c r="G30">
+        <f>Totals!G30-Totals!G29</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f>Totals!A31</f>
         <v>43920</v>
@@ -4136,8 +5295,16 @@
         <f>Totals!E31-Totals!E30</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f>Totals!F31-Totals!F30</f>
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <f>Totals!G31-Totals!G30</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f>Totals!A32</f>
         <v>43921</v>
@@ -4158,8 +5325,16 @@
         <f>Totals!E32-Totals!E31</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f>Totals!F32-Totals!F31</f>
+        <v>99</v>
+      </c>
+      <c r="G32">
+        <f>Totals!G32-Totals!G31</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>Totals!A33</f>
         <v>43922</v>
@@ -4180,8 +5355,16 @@
         <f>Totals!E33-Totals!E32</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f>Totals!F33-Totals!F32</f>
+        <v>107</v>
+      </c>
+      <c r="G33">
+        <f>Totals!G33-Totals!G32</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>Totals!A34</f>
         <v>43923</v>
@@ -4202,8 +5385,16 @@
         <f>Totals!E34-Totals!E33</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f>Totals!F34-Totals!F33</f>
+        <v>99</v>
+      </c>
+      <c r="G34">
+        <f>Totals!G34-Totals!G33</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>Totals!A35</f>
         <v>43924</v>
@@ -4224,8 +5415,16 @@
         <f>Totals!E35-Totals!E34</f>
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f>Totals!F35-Totals!F34</f>
+        <v>129</v>
+      </c>
+      <c r="G35">
+        <f>Totals!G35-Totals!G34</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>Totals!A36</f>
         <v>43925</v>
@@ -4246,8 +5445,16 @@
         <f>Totals!E36-Totals!E35</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f>Totals!F36-Totals!F35</f>
+        <v>66</v>
+      </c>
+      <c r="G36">
+        <f>Totals!G36-Totals!G35</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f>Totals!A37</f>
         <v>43926</v>
@@ -4268,8 +5475,16 @@
         <f>Totals!E37-Totals!E36</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f>Totals!F37-Totals!F36</f>
+        <v>59</v>
+      </c>
+      <c r="G37">
+        <f>Totals!G37-Totals!G36</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f>Totals!A38</f>
         <v>43927</v>
@@ -4290,8 +5505,16 @@
         <f>Totals!E38-Totals!E37</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f>Totals!F38-Totals!F37</f>
+        <v>123</v>
+      </c>
+      <c r="G38">
+        <f>Totals!G38-Totals!G37</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>Totals!A39</f>
         <v>43928</v>
@@ -4312,8 +5535,16 @@
         <f>Totals!E39-Totals!E38</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f>Totals!F39-Totals!F38</f>
+        <v>136</v>
+      </c>
+      <c r="G39">
+        <f>Totals!G39-Totals!G38</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>Totals!A40</f>
         <v>43929</v>
@@ -4334,8 +5565,16 @@
         <f>Totals!E40-Totals!E39</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f>Totals!F40-Totals!F39</f>
+        <v>165</v>
+      </c>
+      <c r="G40">
+        <f>Totals!G40-Totals!G39</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f>Totals!A41</f>
         <v>43930</v>
@@ -4356,8 +5595,16 @@
         <f>Totals!E41-Totals!E40</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f>Totals!F41-Totals!F40</f>
+        <v>107</v>
+      </c>
+      <c r="G41">
+        <f>Totals!G41-Totals!G40</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f>Totals!A42</f>
         <v>43931</v>
@@ -4378,8 +5625,16 @@
         <f>Totals!E42-Totals!E41</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f>Totals!F42-Totals!F41</f>
+        <v>128</v>
+      </c>
+      <c r="G42">
+        <f>Totals!G42-Totals!G41</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>Totals!A43</f>
         <v>43932</v>
@@ -4400,8 +5655,16 @@
         <f>Totals!E43-Totals!E42</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f>Totals!F43-Totals!F42</f>
+        <v>76</v>
+      </c>
+      <c r="G43">
+        <f>Totals!G43-Totals!G42</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>Totals!A44</f>
         <v>43933</v>
@@ -4422,8 +5685,16 @@
         <f>Totals!E44-Totals!E43</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f>Totals!F44-Totals!F43</f>
+        <v>46</v>
+      </c>
+      <c r="G44">
+        <f>Totals!G44-Totals!G43</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f>Totals!A45</f>
         <v>43934</v>
@@ -4444,8 +5715,16 @@
         <f>Totals!E45-Totals!E44</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f>Totals!F45-Totals!F44</f>
+        <v>123</v>
+      </c>
+      <c r="G45">
+        <f>Totals!G45-Totals!G44</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f>Totals!A46</f>
         <v>43935</v>
@@ -4466,8 +5745,16 @@
         <f>Totals!E46-Totals!E45</f>
         <v>189</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f>Totals!F46-Totals!F45</f>
+        <v>189</v>
+      </c>
+      <c r="G46">
+        <f>Totals!G46-Totals!G45</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f>Totals!A47</f>
         <v>43936</v>
@@ -4488,8 +5775,16 @@
         <f>Totals!E47-Totals!E46</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f>Totals!F47-Totals!F46</f>
+        <v>195</v>
+      </c>
+      <c r="G47">
+        <f>Totals!G47-Totals!G46</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f>Totals!A48</f>
         <v>43937</v>
@@ -4510,8 +5805,16 @@
         <f>Totals!E48-Totals!E47</f>
         <v>199</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f>Totals!F48-Totals!F47</f>
+        <v>200</v>
+      </c>
+      <c r="G48">
+        <f>Totals!G48-Totals!G47</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f>Totals!A49</f>
         <v>43938</v>
@@ -4532,8 +5835,16 @@
         <f>Totals!E49-Totals!E48</f>
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f>Totals!F49-Totals!F48</f>
+        <v>136</v>
+      </c>
+      <c r="G49">
+        <f>Totals!G49-Totals!G48</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>Totals!A50</f>
         <v>43939</v>
@@ -4554,8 +5865,16 @@
         <f>Totals!E50-Totals!E49</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f>Totals!F50-Totals!F49</f>
+        <v>92</v>
+      </c>
+      <c r="G50">
+        <f>Totals!G50-Totals!G49</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>Totals!A51</f>
         <v>43940</v>
@@ -4576,8 +5895,16 @@
         <f>Totals!E51-Totals!E50</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f>Totals!F51-Totals!F50</f>
+        <v>56</v>
+      </c>
+      <c r="G51">
+        <f>Totals!G51-Totals!G50</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>Totals!A52</f>
         <v>43941</v>
@@ -4598,8 +5925,16 @@
         <f>Totals!E52-Totals!E51</f>
         <v>185</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f>Totals!F52-Totals!F51</f>
+        <v>185</v>
+      </c>
+      <c r="G52">
+        <f>Totals!G52-Totals!G51</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>Totals!A53</f>
         <v>43942</v>
@@ -4620,8 +5955,16 @@
         <f>Totals!E53-Totals!E52</f>
         <v>146</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f>Totals!F53-Totals!F52</f>
+        <v>146</v>
+      </c>
+      <c r="G53">
+        <f>Totals!G53-Totals!G52</f>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f>Totals!A54</f>
         <v>43943</v>
@@ -4642,8 +5985,16 @@
         <f>Totals!E54-Totals!E53</f>
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f>Totals!F54-Totals!F53</f>
+        <v>172</v>
+      </c>
+      <c r="G54">
+        <f>Totals!G54-Totals!G53</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f>Totals!A55</f>
         <v>43944</v>
@@ -4664,8 +6015,16 @@
         <f>Totals!E55-Totals!E54</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f>Totals!F55-Totals!F54</f>
+        <v>197</v>
+      </c>
+      <c r="G55">
+        <f>Totals!G55-Totals!G54</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f>Totals!A56</f>
         <v>43945</v>
@@ -4686,8 +6045,16 @@
         <f>Totals!E56-Totals!E55</f>
         <v>194</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f>Totals!F56-Totals!F55</f>
+        <v>195</v>
+      </c>
+      <c r="G56">
+        <f>Totals!G56-Totals!G55</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f>Totals!A57</f>
         <v>43946</v>
@@ -4708,8 +6075,16 @@
         <f>Totals!E57-Totals!E56</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f>Totals!F57-Totals!F56</f>
+        <v>63</v>
+      </c>
+      <c r="G57">
+        <f>Totals!G57-Totals!G56</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f>Totals!A58</f>
         <v>43947</v>
@@ -4730,8 +6105,16 @@
         <f>Totals!E58-Totals!E57</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f>Totals!F58-Totals!F57</f>
+        <v>47</v>
+      </c>
+      <c r="G58">
+        <f>Totals!G58-Totals!G57</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f>Totals!A59</f>
         <v>43948</v>
@@ -4752,8 +6135,16 @@
         <f>Totals!E59-Totals!E58</f>
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f>Totals!F59-Totals!F58</f>
+        <v>167</v>
+      </c>
+      <c r="G59">
+        <f>Totals!G59-Totals!G58</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f>Totals!A60</f>
         <v>43949</v>
@@ -4774,8 +6165,16 @@
         <f>Totals!E60-Totals!E59</f>
         <v>166</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f>Totals!F60-Totals!F59</f>
+        <v>166</v>
+      </c>
+      <c r="G60">
+        <f>Totals!G60-Totals!G59</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f>Totals!A61</f>
         <v>43950</v>
@@ -4796,8 +6195,16 @@
         <f>Totals!E61-Totals!E60</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f>Totals!F61-Totals!F60</f>
+        <v>132</v>
+      </c>
+      <c r="G61">
+        <f>Totals!G61-Totals!G60</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f>Totals!A62</f>
         <v>43951</v>
@@ -4818,8 +6225,16 @@
         <f>Totals!E62-Totals!E61</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f>Totals!F62-Totals!F61</f>
+        <v>108</v>
+      </c>
+      <c r="G62">
+        <f>Totals!G62-Totals!G61</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f>Totals!A63</f>
         <v>43952</v>
@@ -4840,8 +6255,16 @@
         <f>Totals!E63-Totals!E62</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f>Totals!F63-Totals!F62</f>
+        <v>151</v>
+      </c>
+      <c r="G63">
+        <f>Totals!G63-Totals!G62</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f>Totals!A64</f>
         <v>43953</v>
@@ -4862,8 +6285,16 @@
         <f>Totals!E64-Totals!E63</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f>Totals!F64-Totals!F63</f>
+        <v>65</v>
+      </c>
+      <c r="G64">
+        <f>Totals!G64-Totals!G63</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f>Totals!A65</f>
         <v>43954</v>
@@ -4884,8 +6315,16 @@
         <f>Totals!E65-Totals!E64</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f>Totals!F65-Totals!F64</f>
+        <v>56</v>
+      </c>
+      <c r="G65">
+        <f>Totals!G65-Totals!G64</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f>Totals!A66</f>
         <v>43955</v>
@@ -4906,8 +6345,16 @@
         <f>Totals!E66-Totals!E65</f>
         <v>139</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f>Totals!F66-Totals!F65</f>
+        <v>139</v>
+      </c>
+      <c r="G66">
+        <f>Totals!G66-Totals!G65</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f>Totals!A67</f>
         <v>43956</v>
@@ -4928,8 +6375,16 @@
         <f>Totals!E67-Totals!E66</f>
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f>Totals!F67-Totals!F66</f>
+        <v>111</v>
+      </c>
+      <c r="G67">
+        <f>Totals!G67-Totals!G66</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f>Totals!A68</f>
         <v>43957</v>
@@ -4950,8 +6405,16 @@
         <f>Totals!E68-Totals!E67</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f>Totals!F68-Totals!F67</f>
+        <v>109</v>
+      </c>
+      <c r="G68">
+        <f>Totals!G68-Totals!G67</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f>Totals!A69</f>
         <v>43958</v>
@@ -4972,8 +6435,16 @@
         <f>Totals!E69-Totals!E68</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f>Totals!F69-Totals!F68</f>
+        <v>93</v>
+      </c>
+      <c r="G69">
+        <f>Totals!G69-Totals!G68</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f>Totals!A70</f>
         <v>43959</v>
@@ -4994,8 +6465,16 @@
         <f>Totals!E70-Totals!E69</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f>Totals!F70-Totals!F69</f>
+        <v>63</v>
+      </c>
+      <c r="G70">
+        <f>Totals!G70-Totals!G69</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <f>Totals!A71</f>
         <v>43960</v>
@@ -5016,8 +6495,16 @@
         <f>Totals!E71-Totals!E70</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f>Totals!F71-Totals!F70</f>
+        <v>36</v>
+      </c>
+      <c r="G71">
+        <f>Totals!G71-Totals!G70</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f>Totals!A72</f>
         <v>43961</v>
@@ -5038,8 +6525,16 @@
         <f>Totals!E72-Totals!E71</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <f>Totals!F72-Totals!F71</f>
+        <v>25</v>
+      </c>
+      <c r="G72">
+        <f>Totals!G72-Totals!G71</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f>Totals!A73</f>
         <v>43962</v>
@@ -5060,8 +6555,16 @@
         <f>Totals!E73-Totals!E72</f>
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <f>Totals!F73-Totals!F72</f>
+        <v>79</v>
+      </c>
+      <c r="G73">
+        <f>Totals!G73-Totals!G72</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <f>Totals!A74</f>
         <v>43963</v>
@@ -5082,8 +6585,16 @@
         <f>Totals!E74-Totals!E73</f>
         <v>103</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f>Totals!F74-Totals!F73</f>
+        <v>104</v>
+      </c>
+      <c r="G74">
+        <f>Totals!G74-Totals!G73</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f>Totals!A75</f>
         <v>43964</v>
@@ -5104,8 +6615,16 @@
         <f>Totals!E75-Totals!E74</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <f>Totals!F75-Totals!F74</f>
+        <v>85</v>
+      </c>
+      <c r="G75">
+        <f>Totals!G75-Totals!G74</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f>Totals!A76</f>
         <v>43965</v>
@@ -5126,8 +6645,16 @@
         <f>Totals!E76-Totals!E75</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <f>Totals!F76-Totals!F75</f>
+        <v>106</v>
+      </c>
+      <c r="G76">
+        <f>Totals!G76-Totals!G75</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <f>Totals!A77</f>
         <v>43966</v>
@@ -5148,8 +6675,16 @@
         <f>Totals!E77-Totals!E76</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <f>Totals!F77-Totals!F76</f>
+        <v>103</v>
+      </c>
+      <c r="G77">
+        <f>Totals!G77-Totals!G76</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f>Totals!A78</f>
         <v>43967</v>
@@ -5170,8 +6705,16 @@
         <f>Totals!E78-Totals!E77</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <f>Totals!F78-Totals!F77</f>
+        <v>24</v>
+      </c>
+      <c r="G78">
+        <f>Totals!G78-Totals!G77</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <f>Totals!A79</f>
         <v>43968</v>
@@ -5192,8 +6735,16 @@
         <f>Totals!E79-Totals!E78</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <f>Totals!F79-Totals!F78</f>
+        <v>25</v>
+      </c>
+      <c r="G79">
+        <f>Totals!G79-Totals!G78</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <f>Totals!A80</f>
         <v>43969</v>
@@ -5214,8 +6765,16 @@
         <f>Totals!E80-Totals!E79</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <f>Totals!F80-Totals!F79</f>
+        <v>88</v>
+      </c>
+      <c r="G80">
+        <f>Totals!G80-Totals!G79</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <f>Totals!A81</f>
         <v>43970</v>
@@ -5236,8 +6795,16 @@
         <f>Totals!E81-Totals!E80</f>
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <f>Totals!F81-Totals!F80</f>
+        <v>87</v>
+      </c>
+      <c r="G81">
+        <f>Totals!G81-Totals!G80</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <f>Totals!A82</f>
         <v>43971</v>
@@ -5258,8 +6825,16 @@
         <f>Totals!E82-Totals!E81</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <f>Totals!F82-Totals!F81</f>
+        <v>59</v>
+      </c>
+      <c r="G82">
+        <f>Totals!G82-Totals!G81</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <f>Totals!A83</f>
         <v>43972</v>
@@ -5280,8 +6855,16 @@
         <f>Totals!E83-Totals!E82</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <f>Totals!F83-Totals!F82</f>
+        <v>48</v>
+      </c>
+      <c r="G83">
+        <f>Totals!G83-Totals!G82</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <f>Totals!A84</f>
         <v>43973</v>
@@ -5298,8 +6881,16 @@
         <f>Totals!E84-Totals!E83</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <f>Totals!F84-Totals!F83</f>
+        <v>37</v>
+      </c>
+      <c r="G84">
+        <f>Totals!G84-Totals!G83</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <f>Totals!A85</f>
         <v>43974</v>
@@ -5312,8 +6903,16 @@
         <f>Totals!E85-Totals!E84</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <f>Totals!F85-Totals!F84</f>
+        <v>19</v>
+      </c>
+      <c r="G85">
+        <f>Totals!G85-Totals!G84</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <f>Totals!A86</f>
         <v>43975</v>
@@ -5322,62 +6921,90 @@
         <f>Totals!E86-Totals!E85</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <f>Totals!F86-Totals!F85</f>
+        <v>13</v>
+      </c>
+      <c r="G86">
+        <f>Totals!G86-Totals!G85</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f>Totals!A87</f>
         <v>43976</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <f>Totals!F87-Totals!F86</f>
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <f>Totals!G87-Totals!G86</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f>Totals!A88</f>
         <v>43977</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <f>Totals!F88-Totals!F87</f>
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <f>Totals!G88-Totals!G87</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f>Totals!A89</f>
         <v>43978</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <f>Totals!G89-Totals!G88</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <f>Totals!A90</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <f>Totals!A91</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <f>Totals!A92</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <f>Totals!A93</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <f>Totals!A94</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <f>Totals!A95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <f>Totals!A96</f>
         <v>0</v>
